--- a/data/turnup/output5.xlsx
+++ b/data/turnup/output5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>InChI=1S/C8H16NO9P/c1-4(11)9-5(2-10)7(13)8(14)6(12)3-18-19(15,16)17/h2,5-8,12-14H,3H2,1H3,(H,9,11)(H2,15,16,17)/p-2/t5-,6-,7-,8-/m1/s1;</t>
+          <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>InChI=1S/C8H16NO9P/c1-3(10)9-5-7(12)6(11)4(18-8(5)13)2-17-19(14,15)16/h4-8,11-13H,2H2,1H3,(H,9,10)(H2,14,15,16)/p-2/t4-,5-,6-,7-,8?/m1/s1;</t>
+          <t>InChI=1S/C6H13NO2S/c1-10(2)4-3-5(7)6(8)9/h5H,3-4,7H2,1-2H3/p+1/t5-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MLPHGLIVSCQALPDEPLHSSFIMSKMALAAYEGGAVGIRANTKEDILAIKETVDLPVIGIVKRDYDHSDVFITATSKEVDELIESQCEVIALDATLQQRPKETLDELVSYIRTHAPNVEIMADIATVEEAKNAARLGFDYIGTTLHGYTSYTQGQLLYQNDFQFLKDVLQSVDAKVIAEGNVITPDMYKRVMDLGVHCSVVGGAITRPKEITKRFVQVMED</t>
+          <t>MSQFLTQLKDNVLVADGAIGTILYSEGLDTCPEAYNLSHPDKVERIHRSYIEAGADVIQTNTYGANFEKLKRFGLEDKVKAIHQAAVRIAKKAANKDTYILGTVGGFRGIKQEDISLQTILYHTEIQIDTLIEEGVDALLFETYYDLEELTNVISRTRKKYDIPIIAQLTASNTNYLVNGQAINEGLKQLVQCGANIVGLNCHHGPHHMQESFTHIELPEHAYLSCYPNASLLDIENSEFKYSDNAQYFGQVAQNLIREGVRLIGGCCGTTPEHIKFIKESIQTLKPVNDKKVIPIPTKALFNPSQNKVRQSLTSKVQERPTVIIELDTPKHLDTNRFFENIAKLDKANVDAVTLADNSLATVRISNIAAASLIKQYYNIEPLVHITCRDRNLIGLQSHLLGLSLIGVNEILAITGDPSKVGHLPGATNVYDVNSKGLTELALRFNQGINTDGDALKKRTHFNIAGAFNPNVRKLDGAVKRLEKKIESGMSYFITQPVYSKEKIIEIYHATKHLNKPFFIGIMPIASYKNALFLHNEVPGIKMSDEILQQFEAVKDDKAKTRELSLKLSKDLIDTVHEYFNGLYIITPFQNVEDSLELAAYSKSITAHKEAIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,23 +490,23 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7.59</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C20H21N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,9,12-13H,5-8H2,(H6-,21,22,23,24,25,28,29,30,31,32,33)/p-1/t12-,13+/m1/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+          <t>MKKAILSVSNKTGIVEFAKALTQLNYELYSTGGTKRILDEANVPVRSVSDLTHFPEIMDGRVKTLHPAVHGGILADRNKPQHLNELSEQHIDLIDMVVVNLYPFQQTVANPDVTMDEAIENIDIGGPTMLRAAAKNYKHVTTIVHPADYHEVLTRLRNDSLDESYRQSLMIKVFEHTAEYDEAIVRFFKGDKETLRYGENPQQSAYFVRTSNAKHTIAGAKQLHGKQLSYNNIKDADATLALVKKFDTPAAVAVKHMNPCGVGIGDTIEQAFQHAYEADSQSIFGGIVALNRAVTPELAEQLHSIFLEVIIAPKFTDEALNILKQKKNVRLLEIDMTIDSNEEEFVSVSGGYLVQDKDNYVVPKEEMKVVTEVAPTDEQWEAMLLGWKVVPSVKSNAIILSNNKQTVGIGAGQMNRVGAAKIALERAIEINDHVALVSDGFFPMGDTVELAAQHGIKAIIQPGGSIKDQDSIDMANKHGIAMVVTGTRHFKH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,23 +518,23 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>6.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C20H21N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,9,12-13H,5-8H2,(H6-,21,22,23,24,25,28,29,30,31,32,33)/p-1/t12-,13+/m1/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+          <t>MKKAILSVSNKTGIVEFAKALTQLNYELYSTGGTKRILDEANVPVRSVSDLTHFPEIMDGRVKTLHPAVHGGILADRNKPQHLNELSEQHIDLIDMVVVNLYPFQQTVANPDVTMDEAIENIDIGGPTMLRAAAKNYKHVTTIVHPADYHEVLTRLRNDSLDESYRQSLMIKVFEHTAEYDEAIVRFFKGDKETLRYGENPQQSAYFVRTSNAKHTIAGAKQLHGKQLSYNNIKDADATLALVKKFDTPAAVAVKHMNPCGVGIGDTIEQAFQHAYEADSQSIFGGIVALNRAVTPELAEQLHSIFLEVIIAPKFTDEALNILKQKKNVRLLEIDMTIDSNEEEFVSVSGGYLVQDKDNYVVPKEEMKVVTEVAPTDEQWEAMLLGWKVVPSVKSNAIILSNNKQTVGIGAGQMNRVGAAKIALERAIEINDHVALVSDGFFPMGDTVELAAQHGIKAIIQPGGSIKDQDSIDMANKHGIAMVVTGTRHFKH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,23 +546,23 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>6.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MALSTFKREHIKKNLRNDEYDLVIIGGGITGAGIALDASERGMKVALVEMQDFAQGTSSRSTKLVHGGLRYLKQFQIGVVAETGKERAIVYENGPHVTTPEWMLLPMHKGGTFGKFSTSIGLGMYDRLAGVKKSERKKMLSKKETLAKEPLVKKEGLKGGGYYVEYRTDDARLTIEVMKRAAEKGAEIINYTKSEHFTYDKNQQVNGVKVIDKLTNENYTIKAKKVVNAAGPWVDDVRSGDYARNNKKLRLTKGVHVVIDQSKFPLGQAVYFDTEKDGRMIFAIPREGKAYVGTTDTFYDNIKSSPLTTQEDRDYLIDAINYMFPSVNVTDEDIESTWAGIRPLIYEEGKDPSEISRKDEIWEGKSGLLTIAGGKLTGYRHMAQDIVDLVSKRLKKDYGLTFSPCNTKGLAISGGDVGGSKNFDAFVEQKVDVAKGFGIDEDVARRLASKYGSNVDELFNIAQTSQYHDSKLPLEIYVELVYSIQQEMVYKPNDFLVRRSGKMYFNIKDVLDYKDSIIDIMADMLDYSPAQIEAYTEEVEQAIKEAQHGNNQPAVKE</t>
+          <t>MAQTLAQTKQISQSHTFDVSQSHHKTPDDTNSHSVIYSTQNLDLWYGENHALQNINLDIYENQITAIIGPSGCGKSTYIKTLNRMVELVPTVKTAGKILYRDQDIFDQKYSKEQLRTNVGMVFQQPNPFPKSIYDNITYGPKIHGIKNKKVLDEIVEKSLRGAAIWDELKDRLHTNAYSLSGGQQQRVCIARCLAIEPEVILMDEPTSALDPISTLRVEELVQELKENYTIIMVTHNMQQAARVSDKTAFFLNGYVNEYDDTDKIFSNPSNKKTEDYISGRFG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,23 +574,23 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>27.17</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MALSTFKREHIKKNLRNDEYDLVIIGGGITGAGIALDASERGMKVALVEMQDFAQGTSSRSTKLVHGGLRYLKQFQIGVVAETGKERAIVYENGPHVTTPEWMLLPMHKGGTFGKFSTSIGLGMYDRLAGVKKSERKKMLSKKETLAKEPLVKKEGLKGGGYYVEYRTDDARLTIEVMKRAAEKGAEIINYTKSEHFTYDKNQQVNGVKVIDKLTNENYTIKAKKVVNAAGPWVDDVRSGDYARNNKKLRLTKGVHVVIDQSKFPLGQAVYFDTEKDGRMIFAIPREGKAYVGTTDTFYDNIKSSPLTTQEDRDYLIDAINYMFPSVNVTDEDIESTWAGIRPLIYEEGKDPSEISRKDEIWEGKSGLLTIAGGKLTGYRHMAQDIVDLVSKRLKKDYGLTFSPCNTKGLAISGGDVGGSKNFDAFVEQKVDVAKGFGIDEDVARRLASKYGSNVDELFNIAQTSQYHDSKLPLEIYVELVYSIQQEMVYKPNDFLVRRSGKMYFNIKDVLDYKDSIIDIMADMLDYSPAQIEAYTEEVEQAIKEAQHGNNQPAVKE</t>
+          <t>MAQTLAQTKQISQSHTFDVSQSHHKTPDDTNSHSVIYSTQNLDLWYGENHALQNINLDIYENQITAIIGPSGCGKSTYIKTLNRMVELVPTVKTAGKILYRDQDIFDQKYSKEQLRTNVGMVFQQPNPFPKSIYDNITYGPKIHGIKNKKVLDEIVEKSLRGAAIWDELKDRLHTNAYSLSGGQQQRVCIARCLAIEPEVILMDEPTSALDPISTLRVEELVQELKENYTIIMVTHNMQQAARVSDKTAFFLNGYVNEYDDTDKIFSNPSNKKTEDYISGRFG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -602,23 +602,23 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>27.17</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>InChI=1S/C27H46N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-16,20-22,26,35,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t15-,16+,20+,21+,22-,26+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C27H44N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-14,16,20-22,26,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t16-,20-,21-,22+,26-/m1/s1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
+          <t>METTDNNRQSLVDQQLVQKHLSSRTVKNKVFKLIFLACTLLGLVVLIALLTQTLIKGVSHLNLQFFTNFSSSTPSMAGVKGALIGSLWLMLSIIPLSIILGIGTAIYLEEYAKNNKFTQFVKISISNLAGVPSVVFGLLGYTLFVGGAGIEALKMGNSILAAALTMTLLILPIIIVSSQEAIRAVPTSVREASYGLGANKWQTIRRVVLPAALPGILTGFILSLSRALGETAPLVLIGIPTILLATPRSILDQFSALPIQIFTWAKMPQEEFQNVASAGIIVLLVILILMNGVAIILRNKFSKKF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,23 +630,23 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>23.47</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C27H44N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-14,16,20-22,26,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t16-,20-,21-,22+,26-/m1/s1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>InChI=1S/C27H46N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-16,20-22,26,35,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t15-,16+,20+,21+,22-,26+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
+          <t>METTDNNRQSLVDQQLVQKHLSSRTVKNKVFKLIFLACTLLGLVVLIALLTQTLIKGVSHLNLQFFTNFSSSTPSMAGVKGALIGSLWLMLSIIPLSIILGIGTAIYLEEYAKNNKFTQFVKISISNLAGVPSVVFGLLGYTLFVGGAGIEALKMGNSILAAALTMTLLILPIIIVSSQEAIRAVPTSVREASYGLGANKWQTIRRVVLPAALPGILTGFILSLSRALGETAPLVLIGIPTILLATPRSILDQFSALPIQIFTWAKMPQEEFQNVASAGIIVLLVILILMNGVAIILRNKFSKKF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -658,23 +658,23 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>23.47</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O/h1H2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAELQRGLEGVIAAETKISSIIESQLTYAGYDIDDLAENAQFEEVIFLLWNYRLPNEEELAHLKGKLNQYMTLNPRVYTHFEEYVTDHVHPMTALRTSLSYIAHFDPDAENESDENRYERAMRIQAKVASLVTAFARVRQDKEPLKPNPDLSYAANFLYMLRGELPTDIEVEAFNKALILHADHELNASAFTARCAVSSLSDMYSGIVAAVGSLKGPLHGGANEQVMTMLSEIGSIENVDAYLDEKFANKDKVMGFGHRVYKDGDPRAKYLREMSRQITKDAGREELFEMSVKMEKRMAEEKGLIPNVDFYSASVYHCMEIPHDLFTPIFAVSRSAGWIAHILEQYKDNRIMRPRAKYIGETNRKYIPLEERK</t>
+          <t>MTSSTNVKALIEKNNNKKGKHNDKIIPVILAAISAISILTTLGILITLLLETITFFTRIPITEFLFSTTWNPTGSDPKFGIWALIIGTLKITVIATIFAVPVGLGAAIYLSEYASDRARRIIKPILEILAGIPTIVFGFFALTFVTPVLRSFIPGLGEFNAISPGLVVGIMIVPLITSLSEDAMASVPNKIREGAYGLGATKLEVATKVVLPAATSGIVASIVLAISRAIGETMIVSLAAGSSPTASLSLTSSIQTMTGYIVEIATGDATFGSNIYYSIYAVGFTLFIFTLIMNLLSQWISKRFREEY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -686,23 +686,23 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>25.29</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O/h1H2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MAELQRGLEGVIAAETKISSIIESQLTYAGYDIDDLAENAQFEEVIFLLWNYRLPNEEELAHLKGKLNQYMTLNPRVYTHFEEYVTDHVHPMTALRTSLSYIAHFDPDAENESDENRYERAMRIQAKVASLVTAFARVRQDKEPLKPNPDLSYAANFLYMLRGELPTDIEVEAFNKALILHADHELNASAFTARCAVSSLSDMYSGIVAAVGSLKGPLHGGANEQVMTMLSEIGSIENVDAYLDEKFANKDKVMGFGHRVYKDGDPRAKYLREMSRQITKDAGREELFEMSVKMEKRMAEEKGLIPNVDFYSASVYHCMEIPHDLFTPIFAVSRSAGWIAHILEQYKDNRIMRPRAKYIGETNRKYIPLEERK</t>
+          <t>MTSSTNVKALIEKNNNKKGKHNDKIIPVILAAISAISILTTLGILITLLLETITFFTRIPITEFLFSTTWNPTGSDPKFGIWALIIGTLKITVIATIFAVPVGLGAAIYLSEYASDRARRIIKPILEILAGIPTIVFGFFALTFVTPVLRSFIPGLGEFNAISPGLVVGIMIVPLITSLSEDAMASVPNKIREGAYGLGATKLEVATKVVLPAATSGIVASIVLAISRAIGETMIVSLAAGSSPTASLSLTSSIQTMTGYIVEIATGDATFGSNIYYSIYAVGFTLFIFTLIMNLLSQWISKRFREEY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,23 +714,23 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>25.29</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+          <t>MPVIKINNLNKVFGDNEVLKDINLEINQGEVVAIIGPSGSGKSTLLRCMNLLEVPTKGQVIFEGNDLTEKRTQVDKLRQKMGMVFQNFNLFPHKKVVDNIILAPKLLKKDNNDELHKEALSLLDKVGLKEKADVYPNQLSGGQKQRVAIARALAMHPDVILFDEPTSALDPEVVGDVLKVMKDLAKEGMTMVVVTHEMGFAKDVSDKVIFMADGVVVESGTPVEIFEQPQHERTQNFLARVL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -742,23 +742,23 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+          <t>MPVIKINNLNKVFGDNEVLKDINLEINQGEVVAIIGPSGSGKSTLLRCMNLLEVPTKGQVIFEGNDLTEKRTQVDKLRQKMGMVFQNFNLFPHKKVVDNIILAPKLLKKDNNDELHKEALSLLDKVGLKEKADVYPNQLSGGQKQRVAIARALAMHPDVILFDEPTSALDPEVVGDVLKVMKDLAKEGMTMVVVTHEMGFAKDVSDKVIFMADGVVVESGTPVEIFEQPQHERTQNFLARVL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,23 +770,23 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/CH2O3/c2-1(3)4/h(H2,2,3,4)/p-1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MKQIKKLLVANRGEIAIRIFRAAAELDISTVAIYSNEDKSSLHRYKADESYLVGSDLGPAESYLNIERIIDVAKQANVDAIHPGYGFLSENEQFARRCAEEGIKFIGPHLEHLDMFGDKVKARTTAIKADLPVIPGTDGPIKSYELAKEFAEEAGFPLMIKATSGGGGKGMRIVREESELEDAFHRAKSEAEKSFGNSEVYIERYIDNPKHIEVQVIGDEHGNIVHLFERDCSVQRRHQKVVEVAPSVGLSSDLRQRICDAAIQLMENIKYVNAGTVEFLVSGDEFFFIEVNPRVQVEHTITEMVTGIDIVKTQILVAAGADLFGEEINMPQQKDITTLGYAIQCRITTEDPLNDFMPDTGTIIAYRSSGGFGVRLDAGDGFQGAEISPYYDSLLVKLSTHAISFKQAEEKMVRSLREMRIRGVKTNIPFLINVMKNKKFTSGDYTTKFIEETPELFDIQPSLDRGTKTLEYIGNVTINGFPNVEKRPKPDYELASIPTVSSSKIASFSGTKQLLDEVGPKGVAEWVKKQDDVLLTDTTFRDAHQSLLATRVRTKDMINIASKTADVFKDGFSLEMWGGATFDVAYNFLKENPWERLERLRTAIPNVLFQMLLRASNAVGYKNYPDNVIHKFVQESAKAGIDVFRIFDSLNWVDQMKVANEAVQEAGKISEGTICYTGDILNPERSNIYTLEYYVKLAKELEREGFHILAIKDMAGLLKPKAAYELIGELKAAVDLPIHLHTHDTSGNGLLTYKQAIDAGVDIIDTAVASMSGLTSQPSANSLYYALNGFPRHLRTDIEGMESLSHYWSTVRTYYSDFESDIKSPNTEIYQHEMPGGQYSNLSQQAKSLGLGERFDEVKDMYRRVNFLFGDIVKVTPSSKVVGDMALYMVQNDLDEQSVITDGYKLDFPESVVSFFKGEIGQPVNGFNKDLQAVILKGQEALTARPGEYLEPVDFEKVRELLEEEQQGPVTEQDIISYVLYPKVYEQYIQTRNQYGNLSLLDTPTFFFGMRNGETVEIEIDKGKRLIIKLETISEPDENGNRTIYYAMNGQARRIYIKDENVHTNANVKPKADKSNPSHIGAQMPGSVTEVKVSVGETVKANQPLLITEAMKMETTIQSPFDGMIKQVTVNNGDTIATGDLLIEIEKASD</t>
+          <t>MIQLNNIHKSFNDVEVIKGIDLSVGKGEVVTLIGRSGSGKTTLLRMINALEIPTEGTVFVNGKTYTSKDKKSQIEVRKQSGMVFQSYNLFPHKTALENVMEGLITVKKLKKAEAREKSLELLEKVGLTHVKDQRPHALSGGQQQRVAIARALAMNPKVMLFDEPTSALDPELVNDVLKVIKDLANEGMTMVIVTHEMRFAREVSNNIVFIHEGEIGEQGAPEEIFNNPKTEELKRFLNVINEE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -798,23 +798,23 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>13.01</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/CH2O3/c2-1(3)4/h(H2,2,3,4)/p-1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MKQIKKLLVANRGEIAIRIFRAAAELDISTVAIYSNEDKSSLHRYKADESYLVGSDLGPAESYLNIERIIDVAKQANVDAIHPGYGFLSENEQFARRCAEEGIKFIGPHLEHLDMFGDKVKARTTAIKADLPVIPGTDGPIKSYELAKEFAEEAGFPLMIKATSGGGGKGMRIVREESELEDAFHRAKSEAEKSFGNSEVYIERYIDNPKHIEVQVIGDEHGNIVHLFERDCSVQRRHQKVVEVAPSVGLSSDLRQRICDAAIQLMENIKYVNAGTVEFLVSGDEFFFIEVNPRVQVEHTITEMVTGIDIVKTQILVAAGADLFGEEINMPQQKDITTLGYAIQCRITTEDPLNDFMPDTGTIIAYRSSGGFGVRLDAGDGFQGAEISPYYDSLLVKLSTHAISFKQAEEKMVRSLREMRIRGVKTNIPFLINVMKNKKFTSGDYTTKFIEETPELFDIQPSLDRGTKTLEYIGNVTINGFPNVEKRPKPDYELASIPTVSSSKIASFSGTKQLLDEVGPKGVAEWVKKQDDVLLTDTTFRDAHQSLLATRVRTKDMINIASKTADVFKDGFSLEMWGGATFDVAYNFLKENPWERLERLRTAIPNVLFQMLLRASNAVGYKNYPDNVIHKFVQESAKAGIDVFRIFDSLNWVDQMKVANEAVQEAGKISEGTICYTGDILNPERSNIYTLEYYVKLAKELEREGFHILAIKDMAGLLKPKAAYELIGELKAAVDLPIHLHTHDTSGNGLLTYKQAIDAGVDIIDTAVASMSGLTSQPSANSLYYALNGFPRHLRTDIEGMESLSHYWSTVRTYYSDFESDIKSPNTEIYQHEMPGGQYSNLSQQAKSLGLGERFDEVKDMYRRVNFLFGDIVKVTPSSKVVGDMALYMVQNDLDEQSVITDGYKLDFPESVVSFFKGEIGQPVNGFNKDLQAVILKGQEALTARPGEYLEPVDFEKVRELLEEEQQGPVTEQDIISYVLYPKVYEQYIQTRNQYGNLSLLDTPTFFFGMRNGETVEIEIDKGKRLIIKLETISEPDENGNRTIYYAMNGQARRIYIKDENVHTNANVKPKADKSNPSHIGAQMPGSVTEVKVSVGETVKANQPLLITEAMKMETTIQSPFDGMIKQVTVNNGDTIATGDLLIEIEKASD</t>
+          <t>MIQLNNIHKSFNDVEVIKGIDLSVGKGEVVTLIGRSGSGKTTLLRMINALEIPTEGTVFVNGKTYTSKDKKSQIEVRKQSGMVFQSYNLFPHKTALENVMEGLITVKKLKKAEAREKSLELLEKVGLTHVKDQRPHALSGGQQQRVAIARALAMNPKVMLFDEPTSALDPELVNDVLKVIKDLANEGMTMVIVTHEMRFAREVSNNIVFIHEGEIGEQGAPEEIFNNPKTEELKRFLNVINEE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -826,23 +826,23 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>13.01</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O14P3/c15-6-4(1-25-30(21,22)28-31(23,24)27-29(18,19)20)26-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,21,22)(H,23,24)(H,11,12,17)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>InChI=1S/C19H22N3O12P/c1-8(18(28)29)34-35(31,32)33-7-14(25)15(26)13(24)6-22-12-5-10(23)3-2-9(12)4-11-16(22)20-19(30)21-17(11)27/h2-5,8,13-15,24-26H,6-7H2,1H3,(H4,20,21,23,27,28,29,30,31,32)/p-3/t8-,13-,14+,15-/m0/s1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C10H13N4O8P/c15-6-4(1-21-23(18,19)20)22-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,11,12,17)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MVKLAIDMMGGDNAPDIVLEAVQKAVEDFKDLEIILFGDEKKYNLNHERIEFRHCSEKIEMEDEPVRAIKRKKDSSMVKMAEAVKSGEADGCVSAGNTGALMSAGLFIVGRIKGVARPALVVTLPTIDGKGFVFLDVGANADAKPEHLLQYAQLGDIYAQKIRGIDNPKISLLNIGTEPAKGNSLTKKSYELLNQDHSLNFVGNIEAKTLMDGDTDVVVTDGYTGNMVLKNLEGTAKSIGKMLKDTIMSSTKNKLAGAILKKDLAEFAKKMDYSEYGGSVLLGLEGTVVKAHGSSNAKAFYSAIRQAKIAGEQNIVQTMKETVGESNE</t>
+          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,23 +854,23 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>3.99</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>InChI=1S/C19H22N3O12P/c1-8(18(28)29)34-35(31,32)33-7-14(25)15(26)13(24)6-22-12-5-10(23)3-2-9(12)4-11-16(22)20-19(30)21-17(11)27/h2-5,8,13-15,24-26H,6-7H2,1H3,(H4,20,21,23,27,28,29,30,31,32)/p-3/t8-,13-,14+,15-/m0/s1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C10H13N4O8P/c15-6-4(1-21-23(18,19)20)22-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,11,12,17)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O14P3/c15-6-4(1-25-30(21,22)28-31(23,24)27-29(18,19)20)26-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,21,22)(H,23,24)(H,11,12,17)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MVKLAIDMMGGDNAPDIVLEAVQKAVEDFKDLEIILFGDEKKYNLNHERIEFRHCSEKIEMEDEPVRAIKRKKDSSMVKMAEAVKSGEADGCVSAGNTGALMSAGLFIVGRIKGVARPALVVTLPTIDGKGFVFLDVGANADAKPEHLLQYAQLGDIYAQKIRGIDNPKISLLNIGTEPAKGNSLTKKSYELLNQDHSLNFVGNIEAKTLMDGDTDVVVTDGYTGNMVLKNLEGTAKSIGKMLKDTIMSSTKNKLAGAILKKDLAEFAKKMDYSEYGGSVLLGLEGTVVKAHGSSNAKAFYSAIRQAKIAGEQNIVQTMKETVGESNE</t>
+          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,23 +882,23 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.99</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
+          <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MMQKLIAQIEKGKPFFEKLSRNIYLRAIRDGFISAMPVILFSSIFLLIAYVPNIFGFKWDKGMEAILMKPYNYTMGLVAFLVAGTTAKSLTDSFNRKLESTNQINFISTMLAAMCGFLFLASDPAKDGGFLSAFMGTKGLLTAFLSAFVTVIVYNFCVKRNITIKMPKEVPPNISQVFKDLIPFSAVIIILYALDLVIRNSFKSNVAEGILKLFEPLFTAADGWIGVTIIFGAFALFWFVGIHGPSIVEPAIAAITYANIEANFKLLQAGEHADKIITSGTQMFIVTFGGTGATLVVPFMFMWMTKSKRNKAIGRASVVPTFFGVNEPILFGAPLVLNPVFFIPFVLAPIVNVWIFKLFVEVLGMNSFSVNLPWTTPGPLGIIMGTGFGLWSFVLAITLIVVDIIIYYPFLKVYDSEILDEEEGRKESNSDLKEKVAANFDTKKADSILAASGVSDDAAKASNITEQTNVLVLCAGGGTSGLLANALNKAAEEYHVPVKAAAGGYGAHMDIMKEYQLIILAPQVASNYEDIKQDTDRLGIKLAKTQGAEYIKLTRDGQAALDFVQQQFEN</t>
+          <t>MTKIILAADVGGTTCKLGIFTPELEQLHKWSIHTDTSDSTGYTLLKGIYDSFVEKVNENNYNFSNVLGVGIGVPGPVDFEKGTVNGAVNLYWPEKVNVREIFEQFVDCPVYVDNDANIAALGEKHKGAGEGADDVVAITLGTGLGGGIISNGEIVHGHNGSGAEIGHFRADFDQRFKCNCGRSGCIETVASATGVVNLVNFYYPKLTFRSSILELIKENKVTAKAVFDAAKAGDQFCIFITEKVANYIGYLCSIISVTSNPKYIVLGGGMSTAGPILIENIKTEYHNLTFTPAQFETEIVQAKLGNDAGITGAAGLIKTYVLDKEGVK</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -910,23 +910,23 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>58.03</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
+          <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MMQKLIAQIEKGKPFFEKLSRNIYLRAIRDGFISAMPVILFSSIFLLIAYVPNIFGFKWDKGMEAILMKPYNYTMGLVAFLVAGTTAKSLTDSFNRKLESTNQINFISTMLAAMCGFLFLASDPAKDGGFLSAFMGTKGLLTAFLSAFVTVIVYNFCVKRNITIKMPKEVPPNISQVFKDLIPFSAVIIILYALDLVIRNSFKSNVAEGILKLFEPLFTAADGWIGVTIIFGAFALFWFVGIHGPSIVEPAIAAITYANIEANFKLLQAGEHADKIITSGTQMFIVTFGGTGATLVVPFMFMWMTKSKRNKAIGRASVVPTFFGVNEPILFGAPLVLNPVFFIPFVLAPIVNVWIFKLFVEVLGMNSFSVNLPWTTPGPLGIIMGTGFGLWSFVLAITLIVVDIIIYYPFLKVYDSEILDEEEGRKESNSDLKEKVAANFDTKKADSILAASGVSDDAAKASNITEQTNVLVLCAGGGTSGLLANALNKAAEEYHVPVKAAAGGYGAHMDIMKEYQLIILAPQVASNYEDIKQDTDRLGIKLAKTQGAEYIKLTRDGQAALDFVQQQFEN</t>
+          <t>MTKIILAADVGGTTCKLGIFTPELEQLHKWSIHTDTSDSTGYTLLKGIYDSFVEKVNENNYNFSNVLGVGIGVPGPVDFEKGTVNGAVNLYWPEKVNVREIFEQFVDCPVYVDNDANIAALGEKHKGAGEGADDVVAITLGTGLGGGIISNGEIVHGHNGSGAEIGHFRADFDQRFKCNCGRSGCIETVASATGVVNLVNFYYPKLTFRSSILELIKENKVTAKAVFDAAKAGDQFCIFITEKVANYIGYLCSIISVTSNPKYIVLGGGMSTAGPILIENIKTEYHNLTFTPAQFETEIVQAKLGNDAGITGAAGLIKTYVLDKEGVK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -938,23 +938,23 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>58.03</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O13P3/c15-5-1-7(14-4-13-8-9(14)11-3-12-10(8)16)25-6(5)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,15H,1-2H2,(H,20,21)(H,22,23)(H,11,12,16)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;</t>
+          <t>InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H13N4O7P/c15-5-1-7(21-6(5)2-20-22(17,18)19)14-4-13-8-9(14)11-3-12-10(8)16/h3-7,15H,1-2H2,(H,11,12,16)(H2,17,18,19)/p-2/t5-,6+,7+/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
+          <t>InChI=1S/C6H11O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-5,7-9H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
+          <t>MSTKNKHIPCLITIFGATGDLSHRKLFPSIFHLYQQDNLDEHIAIIGIGRRDITNDDFRNQVKSSIQKHVKDTNKIDAFMEHVFYHRHDVSNEESYQELLDFSNELDSQFELKGNRLFYLAMAPQFFGVISDYLKSSGLTDTKGFKRLVIEKPFGSDLKSAEALNNQIRKSFKEEEIYRIDHYLGKDMVQNIEVLRFANAMFEPLWNNKYISNIQVTSSEILGVEDRGGYYESSGALKDMVQNHMLQMVALLAMEAPISLNSEDIRAEKVKVLKSLRHFQSEDVKKNFVRGQYGEGYIDGKQVKAYRDEDRVADDSNTPTFVSGKLTIDNFRWAGVPFYIRTGKRMKSKTIQVVVEFKEVPMNLYYETDKLLDSNLLVINIQPNEGVSLHLNAKKNTQGIETEPVQLSYSMSAQDKMNTVDAYENLLFDCLKGDATNFTHWEELKSTWKFVDAIQDEWNMVDPEFPNYESGTNGPLESDLLLARDGNHWWDDIQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -966,23 +966,23 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>12.33</v>
+        <v>167.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H13N4O7P/c15-5-1-7(21-6(5)2-20-22(17,18)19)14-4-13-8-9(14)11-3-12-10(8)16/h3-7,15H,1-2H2,(H,11,12,16)(H2,17,18,19)/p-2/t5-,6+,7+/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
+          <t>InChI=1S/C6H11O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-5,7-9H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O13P3/c15-5-1-7(14-4-13-8-9(14)11-3-12-10(8)16)25-6(5)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,15H,1-2H2,(H,20,21)(H,22,23)(H,11,12,16)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;</t>
+          <t>InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
+          <t>MSTKNKHIPCLITIFGATGDLSHRKLFPSIFHLYQQDNLDEHIAIIGIGRRDITNDDFRNQVKSSIQKHVKDTNKIDAFMEHVFYHRHDVSNEESYQELLDFSNELDSQFELKGNRLFYLAMAPQFFGVISDYLKSSGLTDTKGFKRLVIEKPFGSDLKSAEALNNQIRKSFKEEEIYRIDHYLGKDMVQNIEVLRFANAMFEPLWNNKYISNIQVTSSEILGVEDRGGYYESSGALKDMVQNHMLQMVALLAMEAPISLNSEDIRAEKVKVLKSLRHFQSEDVKKNFVRGQYGEGYIDGKQVKAYRDEDRVADDSNTPTFVSGKLTIDNFRWAGVPFYIRTGKRMKSKTIQVVVEFKEVPMNLYYETDKLLDSNLLVINIQPNEGVSLHLNAKKNTQGIETEPVQLSYSMSAQDKMNTVDAYENLLFDCLKGDATNFTHWEELKSTWKFVDAIQDEWNMVDPEFPNYESGTNGPLESDLLLARDGNHWWDDIQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -994,23 +994,23 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>12.33</v>
+        <v>167.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C11H20N4O7/c12-1-2-14-7(16)3-11(22,10(20)21)4-8(17)15-5-6(13)9(18)19/h6,22H,1-5,12-13H2,(H,14,16)(H,15,17)(H,18,19)(H,20,21)/t6-,11-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+          <t>InChI=1S/C6H7N2O3/c9-5(10)2-1-4-6(11)8-3-7-4/h3H,1-2H2,(H,9,10)(H,7,8,11)/q-1;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>InChI=1S/C16H24N4O11/c17-8(13(25)26)7-20-12(24)6-16(31,15(29)30)5-11(23)19-4-3-18-10(22)2-1-9(21)14(27)28/h8,31H,1-7,17H2,(H,18,22)(H,19,23)(H,20,24)(H,25,26)(H,27,28)(H,29,30)/p-2/t8-,16-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C6H6N2O2/c9-6(10)2-1-5-3-7-4-8-5/h1-4H,(H,7,8)(H,9,10)/p-1/b2-1+;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MQNHTAVNTAQTIILRDLVDALLFEDIAGIVSNSEITKENGQTILIYKRETQQIKIPVYFSALNMFRYESSQPITIEGRASKQPLTAAEFWQKIVKMNRDLSREWEVARVEEGLTTAATQLTKQLSELDLASHPFVMSEQFASLKDRPFHPLAKEKRGLREADYQVYQAELNQSFPLMVAAVKKTHMIHGDTANIDELENLTAPIKEQATDMLNDQGLSIDDYVLFPVHPWQYQHILPNVFAKEISEKLVVLLPLKFGDYLSSSSMRSLIDIGAPYNHVKVPFAMQSLGALRLTPTRYMKNGEQAEQLLRQLIEKDEALAKYVMVCDETAWWSYMGQDNDIFKDQLGHLTVQLRKYPEVLAKNDTQQLVSMAALAANDRTLYQMICGKDNISKNDVMTLFEDIAQVFLKVTLSFMQYGALPELHGQNILLSFEDGRVQKCVLRDHDTVRIYKPWLTAHQLSLPKYVVREDTPNTLINEDLETFFAYFQTLAVSVNLYAIIDAIQDLFGVSEHELMSLLKQILKNEVATISWVTTDQLAVRHILFDKQTWPFKQILLPLLYQRDSGGGSMPSGLTTVPNPMVTYD</t>
+          <t>MRKIQAKKGLSIECKGWEQEAVLRMLYNNLDPEVAERPEDLVVYGGIGKAARNWEAFEAIEKTLRELESDETMLVQSGKPVAVFKTHEEAPRVLISNSVLVPEWANWDHFNELDKKGLIMYGQMTAGSWIYIGSQGIVQGTYETFAELGNQHFNGDLAGTVTLTAGLGGMGGAQSLAITMNHGVAICVDIDETRVDKRIDTKYCDVKTADLDEALKLAEEAKERGEGLSIGLVGNAVDIHQAILEKGFKIDIITDQTSAHDPLNGYVPQGYSVEEAKVLREKDPKKYVELSQASMAKHVELMLEFQKRGAVAFDYGNNIRQVAFNNGVKNAFDFPGFVPAYIRPLFCEGKGPFRFAALSGDPKDIERADEEMRKLFPENEKLLRWLDLAEEKISYQGLPSRIAWLGYGERAKMGLALNRLVRDGEISAPIVIGRDHLDAGSVASPNRETESMKDGSDAVGDWAVLNALINTAAGGSWISFHHGGGVGMGYSLHAGMVVVADGSERAERRLERVLTTDSGMGVARHVDAGYDIAIQTAKEKGIHIPMIDKAGDK</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1022,23 +1022,23 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>InChI=1S/C16H24N4O11/c17-8(13(25)26)7-20-12(24)6-16(31,15(29)30)5-11(23)19-4-3-18-10(22)2-1-9(21)14(27)28/h8,31H,1-7,17H2,(H,18,22)(H,19,23)(H,20,24)(H,25,26)(H,27,28)(H,29,30)/p-2/t8-,16-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C6H6N2O2/c9-6(10)2-1-5-3-7-4-8-5/h1-4H,(H,7,8)(H,9,10)/p-1/b2-1+;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C11H20N4O7/c12-1-2-14-7(16)3-11(22,10(20)21)4-8(17)15-5-6(13)9(18)19/h6,22H,1-5,12-13H2,(H,14,16)(H,15,17)(H,18,19)(H,20,21)/t6-,11-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+          <t>InChI=1S/C6H7N2O3/c9-5(10)2-1-4-6(11)8-3-7-4/h3H,1-2H2,(H,9,10)(H,7,8,11)/q-1;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MQNHTAVNTAQTIILRDLVDALLFEDIAGIVSNSEITKENGQTILIYKRETQQIKIPVYFSALNMFRYESSQPITIEGRASKQPLTAAEFWQKIVKMNRDLSREWEVARVEEGLTTAATQLTKQLSELDLASHPFVMSEQFASLKDRPFHPLAKEKRGLREADYQVYQAELNQSFPLMVAAVKKTHMIHGDTANIDELENLTAPIKEQATDMLNDQGLSIDDYVLFPVHPWQYQHILPNVFAKEISEKLVVLLPLKFGDYLSSSSMRSLIDIGAPYNHVKVPFAMQSLGALRLTPTRYMKNGEQAEQLLRQLIEKDEALAKYVMVCDETAWWSYMGQDNDIFKDQLGHLTVQLRKYPEVLAKNDTQQLVSMAALAANDRTLYQMICGKDNISKNDVMTLFEDIAQVFLKVTLSFMQYGALPELHGQNILLSFEDGRVQKCVLRDHDTVRIYKPWLTAHQLSLPKYVVREDTPNTLINEDLETFFAYFQTLAVSVNLYAIIDAIQDLFGVSEHELMSLLKQILKNEVATISWVTTDQLAVRHILFDKQTWPFKQILLPLLYQRDSGGGSMPSGLTTVPNPMVTYD</t>
+          <t>MRKIQAKKGLSIECKGWEQEAVLRMLYNNLDPEVAERPEDLVVYGGIGKAARNWEAFEAIEKTLRELESDETMLVQSGKPVAVFKTHEEAPRVLISNSVLVPEWANWDHFNELDKKGLIMYGQMTAGSWIYIGSQGIVQGTYETFAELGNQHFNGDLAGTVTLTAGLGGMGGAQSLAITMNHGVAICVDIDETRVDKRIDTKYCDVKTADLDEALKLAEEAKERGEGLSIGLVGNAVDIHQAILEKGFKIDIITDQTSAHDPLNGYVPQGYSVEEAKVLREKDPKKYVELSQASMAKHVELMLEFQKRGAVAFDYGNNIRQVAFNNGVKNAFDFPGFVPAYIRPLFCEGKGPFRFAALSGDPKDIERADEEMRKLFPENEKLLRWLDLAEEKISYQGLPSRIAWLGYGERAKMGLALNRLVRDGEISAPIVIGRDHLDAGSVASPNRETESMKDGSDAVGDWAVLNALINTAAGGSWISFHHGGGVGMGYSLHAGMVVVADGSERAERRLERVLTTDSGMGVARHVDAGYDIAIQTAKEKGIHIPMIDKAGDK</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1050,23 +1050,23 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C20H23N7O7/c21-20-25-16-15(18(32)26-20)23-11(7-22-16)8-27(9-28)12-3-1-10(2-4-12)17(31)24-13(19(33)34)5-6-14(29)30/h1-4,9,11,13,23H,5-8H2,(H,24,31)(H,29,30)(H,33,34)(H4,21,22,25,26,32)/p-2/t11-,13+/m1/s1;InChI=1S/C9H15N4O8P/c10-7-4(8(11)16)12-2-13(7)9-6(15)5(14)3(21-9)1-20-22(17,18)19/h2-3,5-6,9,14-15H,1,10H2,(H2,11,16)(H2,17,18,19)/p-2/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+          <t>InChI=1S/C10H15N4O9P/c11-8(18)5-9(13-3-15)14(2-12-5)10-7(17)6(16)4(23-10)1-22-24(19,20)21/h2-4,6-7,10,16-17H,1H2,(H2,11,18)(H,13,15)(H2,19,20,21)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MKPQLSWKVGGQQGEGIESTGEIFATAMNRKGYYLYGYRHFSSRIKGGHTNNKIRVSTTPVHAISDDLDILIAFDQETIDVNHHEMREDSIILADAKAKPVKPEGCHAQLIELPFTATAKELGTALMKNMVAIGATSALMNLNTNTFEELITNMFSKKGDKVVEVNIQALNEGYQLMQSRLPEIDGDFELESTDALPHLYMIGNDAIGLGAIAAGSQFMAAYPITPASEVMEYMIANISKVNGAVIQTEDEIAAVTMAIGANYGGVRAFTASAGPGLSLMMEAIGLSGMTETPLVIINTQRGGPSTGLPTKQEQSDLMQMIYGTHGDIPKIVVAPTDAEDAFYLTMEAFNLAEQYQCPVIVLSDLQLSLGKQTVEKLDYNRIEIKRGEIIQSDIEREEDDKGYFKRYALTSNGVSPRPIPGVKGGIHHITGVEHNEEGKPSESASNRQQQMEKRMRKIEQLLIESPVEANLQHEDADILYIGFISTKGAIQEGSNRLNQQGIKVNTIQIRQLHPFPTSVIQDAVNKAKKVVVVEHNYQGQLASIIKMNVNIHDKIENYTKYDGTPFLPHEIEEKGKIIATEIKEMV</t>
+          <t>MKKAILSVSNKTGIVEFAKALTQLNYELYSTGGTKRILDEANVPVRSVSDLTHFPEIMDGRVKTLHPAVHGGILADRNKPQHLNELSEQHIDLIDMVVVNLYPFQQTVANPDVTMDEAIENIDIGGPTMLRAAAKNYKHVTTIVHPADYHEVLTRLRNDSLDESYRQSLMIKVFEHTAEYDEAIVRFFKGDKETLRYGENPQQSAYFVRTSNAKHTIAGAKQLHGKQLSYNNIKDADATLALVKKFDTPAAVAVKHMNPCGVGIGDTIEQAFQHAYEADSQSIFGGIVALNRAVTPELAEQLHSIFLEVIIAPKFTDEALNILKQKKNVRLLEIDMTIDSNEEEFVSVSGGYLVQDKDNYVVPKEEMKVVTEVAPTDEQWEAMLLGWKVVPSVKSNAIILSNNKQTVGIGAGQMNRVGAAKIALERAIEINDHVALVSDGFFPMGDTVELAAQHGIKAIIQPGGSIKDQDSIDMANKHGIAMVVTGTRHFKH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1078,23 +1078,23 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>4.61</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+          <t>InChI=1S/C10H15N4O9P/c11-8(18)5-9(13-3-15)14(2-12-5)10-7(17)6(16)4(23-10)1-22-24(19,20)21/h2-4,6-7,10,16-17H,1H2,(H2,11,18)(H,13,15)(H2,19,20,21)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C20H23N7O7/c21-20-25-16-15(18(32)26-20)23-11(7-22-16)8-27(9-28)12-3-1-10(2-4-12)17(31)24-13(19(33)34)5-6-14(29)30/h1-4,9,11,13,23H,5-8H2,(H,24,31)(H,29,30)(H,33,34)(H4,21,22,25,26,32)/p-2/t11-,13+/m1/s1;InChI=1S/C9H15N4O8P/c10-7-4(8(11)16)12-2-13(7)9-6(15)5(14)3(21-9)1-20-22(17,18)19/h2-3,5-6,9,14-15H,1,10H2,(H2,11,16)(H2,17,18,19)/p-2/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MKPQLSWKVGGQQGEGIESTGEIFATAMNRKGYYLYGYRHFSSRIKGGHTNNKIRVSTTPVHAISDDLDILIAFDQETIDVNHHEMREDSIILADAKAKPVKPEGCHAQLIELPFTATAKELGTALMKNMVAIGATSALMNLNTNTFEELITNMFSKKGDKVVEVNIQALNEGYQLMQSRLPEIDGDFELESTDALPHLYMIGNDAIGLGAIAAGSQFMAAYPITPASEVMEYMIANISKVNGAVIQTEDEIAAVTMAIGANYGGVRAFTASAGPGLSLMMEAIGLSGMTETPLVIINTQRGGPSTGLPTKQEQSDLMQMIYGTHGDIPKIVVAPTDAEDAFYLTMEAFNLAEQYQCPVIVLSDLQLSLGKQTVEKLDYNRIEIKRGEIIQSDIEREEDDKGYFKRYALTSNGVSPRPIPGVKGGIHHITGVEHNEEGKPSESASNRQQQMEKRMRKIEQLLIESPVEANLQHEDADILYIGFISTKGAIQEGSNRLNQQGIKVNTIQIRQLHPFPTSVIQDAVNKAKKVVVVEHNYQGQLASIIKMNVNIHDKIENYTKYDGTPFLPHEIEEKGKIIATEIKEMV</t>
+          <t>MKKAILSVSNKTGIVEFAKALTQLNYELYSTGGTKRILDEANVPVRSVSDLTHFPEIMDGRVKTLHPAVHGGILADRNKPQHLNELSEQHIDLIDMVVVNLYPFQQTVANPDVTMDEAIENIDIGGPTMLRAAAKNYKHVTTIVHPADYHEVLTRLRNDSLDESYRQSLMIKVFEHTAEYDEAIVRFFKGDKETLRYGENPQQSAYFVRTSNAKHTIAGAKQLHGKQLSYNNIKDADATLALVKKFDTPAAVAVKHMNPCGVGIGDTIEQAFQHAYEADSQSIFGGIVALNRAVTPELAEQLHSIFLEVIIAPKFTDEALNILKQKKNVRLLEIDMTIDSNEEEFVSVSGGYLVQDKDNYVVPKEEMKVVTEVAPTDEQWEAMLLGWKVVPSVKSNAIILSNNKQTVGIGAGQMNRVGAAKIALERAIEINDHVALVSDGFFPMGDTVELAAQHGIKAIIQPGGSIKDQDSIDMANKHGIAMVVTGTRHFKH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1106,23 +1106,23 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4.61</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MATFKDFRNNVKPNWCPGCGDFSVQAAIQKAAANIGLEPEEVAIITGIGCSGRLSGYINSYGVHSIHGRALPLAQGVKMANKDLTVIASGGDGDGYAIGMGHTIHALRRNMNMTYIVMDNQIYGLTKGQTSPSSAVGFVTKTTPKGNIEKNVAPLELALSSGATFVAQGFSSDIKGLTKLIEDAINHDGFSFVNVFSPCVTYNKINTYDWFKEHLTSVDDIENYDSTDKQLATKTVIEHESLVTGIVYQDKETPSYESQIKELDDTPLAKRDIKITEDTFNALTEQFI</t>
+          <t>MDNEKGLLIVLSGPSGVGKGTVRKRIFEDPSTSYKYSISMTTRQMREGEVDGVDYFFKTRDAFEALIKDDQFIEYAEYVGNYYGTPVQYVKDTMDEGHDVFLEIEVEGAKQVRKKFPDALFIFLAPPSLDHLRERLVGRGTESDEKIQSRINEARKEVEMMNLYDYVVVNDEVELAKNRIQCIVEAEHLKRERVEAKYRKMILEAKK</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1134,23 +1134,23 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2.79</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATFKDFRNNVKPNWCPGCGDFSVQAAIQKAAANIGLEPEEVAIITGIGCSGRLSGYINSYGVHSIHGRALPLAQGVKMANKDLTVIASGGDGDGYAIGMGHTIHALRRNMNMTYIVMDNQIYGLTKGQTSPSSAVGFVTKTTPKGNIEKNVAPLELALSSGATFVAQGFSSDIKGLTKLIEDAINHDGFSFVNVFSPCVTYNKINTYDWFKEHLTSVDDIENYDSTDKQLATKTVIEHESLVTGIVYQDKETPSYESQIKELDDTPLAKRDIKITEDTFNALTEQFI</t>
+          <t>MDNEKGLLIVLSGPSGVGKGTVRKRIFEDPSTSYKYSISMTTRQMREGEVDGVDYFFKTRDAFEALIKDDQFIEYAEYVGNYYGTPVQYVKDTMDEGHDVFLEIEVEGAKQVRKKFPDALFIFLAPPSLDHLRERLVGRGTESDEKIQSRINEARKEVEMMNLYDYVVVNDEVELAKNRIQCIVEAEHLKRERVEAKYRKMILEAKK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,23 +1162,23 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>2.79</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>InChI=1S/C30H39N9O12/c1-39-16(13-33-24-23(39)26(45)38-30(31)37-24)12-32-15-4-2-14(3-5-15)25(44)36-19(29(50)51)7-10-21(41)34-17(27(46)47)6-9-20(40)35-18(28(48)49)8-11-22(42)43/h2-5,16-19,32H,6-13H2,1H3,(H,34,41)(H,35,40)(H,36,44)(H,42,43)(H,46,47)(H,48,49)(H,50,51)(H4,31,33,37,38,45)/p-4/t16-,17-,18-,19-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
+          <t>InChI=1S/C8H16NO9P/c1-3(10)9-5-7(12)6(11)4(18-8(5)13)2-17-19(14,15)16/h4-8,11-13H,2H2,1H3,(H,9,10)(H2,14,15,16)/p-2/t4-,5-,6-,7-,8?/m1/s1;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C29H37N9O12/c30-29-37-23-22(25(44)38-29)33-15(12-32-23)11-31-14-3-1-13(2-4-14)24(43)36-18(28(49)50)6-9-20(40)34-16(26(45)46)5-8-19(39)35-17(27(47)48)7-10-21(41)42/h1-4,15-18,31,33H,5-12H2,(H,34,40)(H,35,39)(H,36,43)(H,41,42)(H,45,46)(H,47,48)(H,49,50)(H4,30,32,37,38,44)/p-4/t15-,16-,17-,18-/m0/s1;</t>
+          <t>InChI=1S/C8H16NO9P/c1-4(11)9-5(2-10)7(13)8(14)6(12)3-18-19(15,16)17/h2,5-8,12-14H,3H2,1H3,(H,9,11)(H2,15,16,17)/p-2/t5-,6-,7-,8-/m1/s1;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MTTIKTSNLGFPRLGRKREWKKAIESYWAKKISKEELDQTLTDLHKENLLLQKYYHLDSIPVGDFSLYDHILDTSLLFNIIPERFQGRTIDDDLLFDIARGNKDHVASALIKWFNTNYHYIVPEWDNVEPKVSRNVLLDRFKYAQSLNVNAHPVIVGPITFVKLSKGGHQTFEEKVKTLLPLYKEVFESLIDAGAEYIQVDEPILVTDDSESYENITREAYDYFEKAGVAKKLVIQTYFERAHLKFLSSLPVGGLGLDFVHDNGYNLKQIEAGDFDKSKTLYAGIIDGRNVWASDIEAKKALIDKLLAHTNELVIQPSSSLLHVPVSLDDETLDSSVGEGLSFATEKLDELDALRRLFNQNDSVKYDKLKARYERFQNQSFKNLDYDFESVRTSRQSPFAQRIEQQQKRLNLPDLPTTTIGSFPQSREVRKYRADWKNKRITDEAYETFLKNEIARWIKIQEDIGLDVLVHGEFERNDMVEFFGEKLQGFLVTKFGWVQSYGSRAVKPPIIYGDVKWTAPLTVDETVYAQSLTDKPVKGMLTGPVTILNWSFERVDLPRKVVQDQIALAINEEVLALEAAGIKVIQVDEPALREGLPLRSEYHEQYLKDAVLSFKLATSSVRDETQIHTHMCYSQFGQIIHAIHDLDADVISIETSRSHGDLIKDFEDINYDLGIGLGVYDIHSPRIPTKEEITTAINRSLQQIDRSLFWVNPDCGLKTRKEEEVKDALTVLVNAVKAKRQE</t>
+          <t>MLPHGLIVSCQALPDEPLHSSFIMSKMALAAYEGGAVGIRANTKEDILAIKETVDLPVIGIVKRDYDHSDVFITATSKEVDELIESQCEVIALDATLQQRPKETLDELVSYIRTHAPNVEIMADIATVEEAKNAARLGFDYIGTTLHGYTSYTQGQLLYQNDFQFLKDVLQSVDAKVIAEGNVITPDMYKRVMDLGVHCSVVGGAITRPKEITKRFVQVMED</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1190,23 +1190,23 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.92</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C29H37N9O12/c30-29-37-23-22(25(44)38-29)33-15(12-32-23)11-31-14-3-1-13(2-4-14)24(43)36-18(28(49)50)6-9-20(40)34-16(26(45)46)5-8-19(39)35-17(27(47)48)7-10-21(41)42/h1-4,15-18,31,33H,5-12H2,(H,34,40)(H,35,39)(H,36,43)(H,41,42)(H,45,46)(H,47,48)(H,49,50)(H4,30,32,37,38,44)/p-4/t15-,16-,17-,18-/m0/s1;</t>
+          <t>InChI=1S/C8H16NO9P/c1-4(11)9-5(2-10)7(13)8(14)6(12)3-18-19(15,16)17/h2,5-8,12-14H,3H2,1H3,(H,9,11)(H2,15,16,17)/p-2/t5-,6-,7-,8-/m1/s1;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>InChI=1S/C30H39N9O12/c1-39-16(13-33-24-23(39)26(45)38-30(31)37-24)12-32-15-4-2-14(3-5-15)25(44)36-19(29(50)51)7-10-21(41)34-17(27(46)47)6-9-20(40)35-18(28(48)49)8-11-22(42)43/h2-5,16-19,32H,6-13H2,1H3,(H,34,41)(H,35,40)(H,36,44)(H,42,43)(H,46,47)(H,48,49)(H,50,51)(H4,31,33,37,38,45)/p-4/t16-,17-,18-,19-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
+          <t>InChI=1S/C8H16NO9P/c1-3(10)9-5-7(12)6(11)4(18-8(5)13)2-17-19(14,15)16/h4-8,11-13H,2H2,1H3,(H,9,10)(H2,14,15,16)/p-2/t4-,5-,6-,7-,8?/m1/s1;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MTTIKTSNLGFPRLGRKREWKKAIESYWAKKISKEELDQTLTDLHKENLLLQKYYHLDSIPVGDFSLYDHILDTSLLFNIIPERFQGRTIDDDLLFDIARGNKDHVASALIKWFNTNYHYIVPEWDNVEPKVSRNVLLDRFKYAQSLNVNAHPVIVGPITFVKLSKGGHQTFEEKVKTLLPLYKEVFESLIDAGAEYIQVDEPILVTDDSESYENITREAYDYFEKAGVAKKLVIQTYFERAHLKFLSSLPVGGLGLDFVHDNGYNLKQIEAGDFDKSKTLYAGIIDGRNVWASDIEAKKALIDKLLAHTNELVIQPSSSLLHVPVSLDDETLDSSVGEGLSFATEKLDELDALRRLFNQNDSVKYDKLKARYERFQNQSFKNLDYDFESVRTSRQSPFAQRIEQQQKRLNLPDLPTTTIGSFPQSREVRKYRADWKNKRITDEAYETFLKNEIARWIKIQEDIGLDVLVHGEFERNDMVEFFGEKLQGFLVTKFGWVQSYGSRAVKPPIIYGDVKWTAPLTVDETVYAQSLTDKPVKGMLTGPVTILNWSFERVDLPRKVVQDQIALAINEEVLALEAAGIKVIQVDEPALREGLPLRSEYHEQYLKDAVLSFKLATSSVRDETQIHTHMCYSQFGQIIHAIHDLDADVISIETSRSHGDLIKDFEDINYDLGIGLGVYDIHSPRIPTKEEITTAINRSLQQIDRSLFWVNPDCGLKTRKEEEVKDALTVLVNAVKAKRQE</t>
+          <t>MLPHGLIVSCQALPDEPLHSSFIMSKMALAAYEGGAVGIRANTKEDILAIKETVDLPVIGIVKRDYDHSDVFITATSKEVDELIESQCEVIALDATLQQRPKETLDELVSYIRTHAPNVEIMADIATVEEAKNAARLGFDYIGTTLHGYTSYTQGQLLYQNDFQFLKDVLQSVDAKVIAEGNVITPDMYKRVMDLGVHCSVVGGAITRPKEITKRFVQVMED</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1218,23 +1218,23 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.92</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;</t>
+          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MERTFLMIKPDAVQRNLIGEVISRIERKGLKLVGGKLMQVPMELAETHYGEHQGKPFYNDLISFITSAPVFAMVVEGEDAVNVSRHIIGSTNPSEASPGSIRGDLGLTVGRNIIHGSDSLESAEREINLWFNENEITSYASPRDAWLYE</t>
+          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1246,23 +1246,23 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>10.15</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;</t>
+          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MERTFLMIKPDAVQRNLIGEVISRIERKGLKLVGGKLMQVPMELAETHYGEHQGKPFYNDLISFITSAPVFAMVVEGEDAVNVSRHIIGSTNPSEASPGSIRGDLGLTVGRNIIHGSDSLESAEREINLWFNENEITSYASPRDAWLYE</t>
+          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1274,23 +1274,23 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>10.15</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>InChI=1S/C13H19O10P/c14-5-7-3-1-2-4-8(7)22-13-12(17)11(16)10(15)9(23-13)6-21-24(18,19)20/h1-4,9-17H,5-6H2,(H2,18,19,20)/p-2/t9-,10-,11+,12-,13-/m1/s1;InChI=1S/H2O/h1H2;</t>
+          <t>InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>InChI=1S/C7H8O2/c8-5-6-3-1-2-4-7(6)9/h1-4,8-9H,5H2;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;</t>
+          <t>InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MTKLPQSFMWGGALAANQFEGGYDKGGKGLSVIDVMTSGAHGKARQITESIDPNHYYPNHEGIDFYHRYKEDIALFKEMGLKCLRTSIAWTRIFPNGDEDVPNEEGLAFYDRIFDELIAQGIEPVVTLSHFEMPLHLAKHYGGFRNREVVDYFVHFARVVFERYKDKVTYWMTFNEINNQMDTSNPIFLWTNSGVALTENDNPEEVLYQVAHHELLASALAVRLGKEINPKFKIGTMISHVPIYPYSCHPKDMMEAQIANRLRFFFPDVQVRGYYPSYAKKMLARKGYDVGWQEGDDSILQQGTVDYIGFSYYMSTAVKHDVNTTVENNIVNGGLNHSVENPHIATSDWGWAIDPDGLRYTLNVLYDRYQLPLFIVENGFGAVDEVVDGHIHDDYRIEYLKAHITAAIEAVDQDGVDLIGYTPWGIIDIVSFTTGEMKKRYGLIYVDRDNDGHGTMERLKKDSFYWYQQVIASNGDKL</t>
+          <t>MALSTFKREHIKKNLRNDEYDLVIIGGGITGAGIALDASERGMKVALVEMQDFAQGTSSRSTKLVHGGLRYLKQFQIGVVAETGKERAIVYENGPHVTTPEWMLLPMHKGGTFGKFSTSIGLGMYDRLAGVKKSERKKMLSKKETLAKEPLVKKEGLKGGGYYVEYRTDDARLTIEVMKRAAEKGAEIINYTKSEHFTYDKNQQVNGVKVIDKLTNENYTIKAKKVVNAAGPWVDDVRSGDYARNNKKLRLTKGVHVVIDQSKFPLGQAVYFDTEKDGRMIFAIPREGKAYVGTTDTFYDNIKSSPLTTQEDRDYLIDAINYMFPSVNVTDEDIESTWAGIRPLIYEEGKDPSEISRKDEIWEGKSGLLTIAGGKLTGYRHMAQDIVDLVSKRLKKDYGLTFSPCNTKGLAISGGDVGGSKNFDAFVEQKVDVAKGFGIDEDVARRLASKYGSNVDELFNIAQTSQYHDSKLPLEIYVELVYSIQQEMVYKPNDFLVRRSGKMYFNIKDVLDYKDSIIDIMADMLDYSPAQIEAYTEEVEQAIKEAQHGNNQPAVKE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1302,23 +1302,23 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>81.70999999999999</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>InChI=1S/C7H8O2/c8-5-6-3-1-2-4-7(6)9/h1-4,8-9H,5H2;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;</t>
+          <t>InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>InChI=1S/C13H19O10P/c14-5-7-3-1-2-4-8(7)22-13-12(17)11(16)10(15)9(23-13)6-21-24(18,19)20/h1-4,9-17H,5-6H2,(H2,18,19,20)/p-2/t9-,10-,11+,12-,13-/m1/s1;InChI=1S/H2O/h1H2;</t>
+          <t>InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MTKLPQSFMWGGALAANQFEGGYDKGGKGLSVIDVMTSGAHGKARQITESIDPNHYYPNHEGIDFYHRYKEDIALFKEMGLKCLRTSIAWTRIFPNGDEDVPNEEGLAFYDRIFDELIAQGIEPVVTLSHFEMPLHLAKHYGGFRNREVVDYFVHFARVVFERYKDKVTYWMTFNEINNQMDTSNPIFLWTNSGVALTENDNPEEVLYQVAHHELLASALAVRLGKEINPKFKIGTMISHVPIYPYSCHPKDMMEAQIANRLRFFFPDVQVRGYYPSYAKKMLARKGYDVGWQEGDDSILQQGTVDYIGFSYYMSTAVKHDVNTTVENNIVNGGLNHSVENPHIATSDWGWAIDPDGLRYTLNVLYDRYQLPLFIVENGFGAVDEVVDGHIHDDYRIEYLKAHITAAIEAVDQDGVDLIGYTPWGIIDIVSFTTGEMKKRYGLIYVDRDNDGHGTMERLKKDSFYWYQQVIASNGDKL</t>
+          <t>MALSTFKREHIKKNLRNDEYDLVIIGGGITGAGIALDASERGMKVALVEMQDFAQGTSSRSTKLVHGGLRYLKQFQIGVVAETGKERAIVYENGPHVTTPEWMLLPMHKGGTFGKFSTSIGLGMYDRLAGVKKSERKKMLSKKETLAKEPLVKKEGLKGGGYYVEYRTDDARLTIEVMKRAAEKGAEIINYTKSEHFTYDKNQQVNGVKVIDKLTNENYTIKAKKVVNAAGPWVDDVRSGDYARNNKKLRLTKGVHVVIDQSKFPLGQAVYFDTEKDGRMIFAIPREGKAYVGTTDTFYDNIKSSPLTTQEDRDYLIDAINYMFPSVNVTDEDIESTWAGIRPLIYEEGKDPSEISRKDEIWEGKSGLLTIAGGKLTGYRHMAQDIVDLVSKRLKKDYGLTFSPCNTKGLAISGGDVGGSKNFDAFVEQKVDVAKGFGIDEDVARRLASKYGSNVDELFNIAQTSQYHDSKLPLEIYVELVYSIQQEMVYKPNDFLVRRSGKMYFNIKDVLDYKDSIIDIMADMLDYSPAQIEAYTEEVEQAIKEAQHGNNQPAVKE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1330,23 +1330,23 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>81.70999999999999</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-26,28,32-34,38,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t28-,32-,33-,34+,38-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C27H46N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-16,20-22,26,35,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t15-,16+,20+,21+,22-,26+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-28,32-34,38,47,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t27-,28-,32-,33-,34+,38-/m1/s1;</t>
+          <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C27H44N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-14,16,20-22,26,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t16-,20-,21-,22+,26-/m1/s1;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1358,23 +1358,23 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>6.87</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-28,32-34,38,47,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t27-,28-,32-,33-,34+,38-/m1/s1;</t>
+          <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C27H44N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-14,16,20-22,26,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t16-,20-,21-,22+,26-/m1/s1;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-26,28,32-34,38,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t28-,32-,33-,34+,38-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C27H46N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-16,20-22,26,35,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t15-,16+,20+,21+,22-,26+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1386,23 +1386,23 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>6.87</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H10N3O4P/c1-4-8-2-5(6(7)9-4)3-13-14(10,11)12/h2H,3H2,1H3,(H2,7,8,9)(H2,10,11,12)/p-2;InChI=1S/p+1;</t>
+          <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MIKPKIALTIAGTDPTGGAGVMADLKSFHSCGVYGMGVVTSIVAQNTLGVQNIHNLNHQWVDEQLDSVFNDTLPHAIKTGMIATADTMETIRHYLMQHESIPYVIDPVMLAKSGDSLMDNDTKQNLQHTLLPLADVVTPNLPEAEEITGLTIDSEEKIMQAGRIFINEIGSKGVIVKGGHSNDTDIAKDYLFTKEGVQTFENERFKTKHTHGTGCTFSAVITAELAKGRPLFDAVQKAKKFISMSIQYTPEIGRGRGPVNHFAYLKKEGLDDELSK</t>
+          <t>MAELQRGLEGVIAAETKISSIIESQLTYAGYDIDDLAENAQFEEVIFLLWNYRLPNEEELAHLKGKLNQYMTLNPRVYTHFEEYVTDHVHPMTALRTSLSYIAHFDPDAENESDENRYERAMRIQAKVASLVTAFARVRQDKEPLKPNPDLSYAANFLYMLRGELPTDIEVEAFNKALILHADHELNASAFTARCAVSSLSDMYSGIVAAVGSLKGPLHGGANEQVMTMLSEIGSIENVDAYLDEKFANKDKVMGFGHRVYKDGDPRAKYLREMSRQITKDAGREELFEMSVKMEKRMAEEKGLIPNVDFYSASVYHCMEIPHDLFTPIFAVSRSAGWIAHILEQYKDNRIMRPRAKYIGETNRKYIPLEERK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1414,23 +1414,23 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>5.01</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H10N3O4P/c1-4-8-2-5(6(7)9-4)3-13-14(10,11)12/h2H,3H2,1H3,(H2,7,8,9)(H2,10,11,12)/p-2;InChI=1S/p+1;</t>
+          <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIKPKIALTIAGTDPTGGAGVMADLKSFHSCGVYGMGVVTSIVAQNTLGVQNIHNLNHQWVDEQLDSVFNDTLPHAIKTGMIATADTMETIRHYLMQHESIPYVIDPVMLAKSGDSLMDNDTKQNLQHTLLPLADVVTPNLPEAEEITGLTIDSEEKIMQAGRIFINEIGSKGVIVKGGHSNDTDIAKDYLFTKEGVQTFENERFKTKHTHGTGCTFSAVITAELAKGRPLFDAVQKAKKFISMSIQYTPEIGRGRGPVNHFAYLKKEGLDDELSK</t>
+          <t>MAELQRGLEGVIAAETKISSIIESQLTYAGYDIDDLAENAQFEEVIFLLWNYRLPNEEELAHLKGKLNQYMTLNPRVYTHFEEYVTDHVHPMTALRTSLSYIAHFDPDAENESDENRYERAMRIQAKVASLVTAFARVRQDKEPLKPNPDLSYAANFLYMLRGELPTDIEVEAFNKALILHADHELNASAFTARCAVSSLSDMYSGIVAAVGSLKGPLHGGANEQVMTMLSEIGSIENVDAYLDEKFANKDKVMGFGHRVYKDGDPRAKYLREMSRQITKDAGREELFEMSVKMEKRMAEEKGLIPNVDFYSASVYHCMEIPHDLFTPIFAVSRSAGWIAHILEQYKDNRIMRPRAKYIGETNRKYIPLEERK</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1442,23 +1442,23 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>5.01</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H18N4O6/c11-5(8(17)18)2-1-3-13-10(12)14-6(9(19)20)4-7(15)16/h5-6H,1-4,11H2,(H,15,16)(H,17,18)(H,19,20)(H3,12,13,14)/p-1/t5-,6?/m0/s1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>InChI=1S/C6H14N4O2/c7-4(5(11)12)2-1-3-10-6(8)9/h4H,1-3,7H2,(H,11,12)(H4,8,9,10)/p+1/t4-/m0/s1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
+          <t>InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MSNKAWGGRFEVQLEEWVDDFNASITFDQTLIDQDIEGSIAHATMLADQGIISQQDSEQIIQGLKSIQHDYHQDQIQFSASLEDIHLNIEHELIKRIGDAGGKLHTGRSRNDQVATDMHLYTKKQVQDIIALIKSLQSVIVDIASNNVDTIMPGYTHLQRAQPISFAHHIMTYFWMLQRDQQRFEDSLKRIDINPLGAAALSGTTYPIDRHETTALLNFGSLYENSLDAVSDRDYIIETLHNISLTMVHLSRFAEEIIFWSTDEAKFITLSDAFSTGSSIMPQKKNPDMAELIRGKVGRTTGHLMSMLMTLKGLPLAYNKDMQEDKEGLFDAVHTIKGSLRIFEGMIQTMTINKERLNQTVKEDFSNATELADYLVTKNIPFRTAHEIVGKIVLECIQQGHYLLDVPLSTYQQHHSSIDADIYDYLQPENCLKRRQSYGSTGQSSVKQQLDVAKQLLSQ</t>
+          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1470,23 +1470,23 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>28.53</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>InChI=1S/C6H14N4O2/c7-4(5(11)12)2-1-3-10-6(8)9/h4H,1-3,7H2,(H,11,12)(H4,8,9,10)/p+1/t4-/m0/s1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
+          <t>InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H18N4O6/c11-5(8(17)18)2-1-3-13-10(12)14-6(9(19)20)4-7(15)16/h5-6H,1-4,11H2,(H,15,16)(H,17,18)(H,19,20)(H3,12,13,14)/p-1/t5-,6?/m0/s1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MSNKAWGGRFEVQLEEWVDDFNASITFDQTLIDQDIEGSIAHATMLADQGIISQQDSEQIIQGLKSIQHDYHQDQIQFSASLEDIHLNIEHELIKRIGDAGGKLHTGRSRNDQVATDMHLYTKKQVQDIIALIKSLQSVIVDIASNNVDTIMPGYTHLQRAQPISFAHHIMTYFWMLQRDQQRFEDSLKRIDINPLGAAALSGTTYPIDRHETTALLNFGSLYENSLDAVSDRDYIIETLHNISLTMVHLSRFAEEIIFWSTDEAKFITLSDAFSTGSSIMPQKKNPDMAELIRGKVGRTTGHLMSMLMTLKGLPLAYNKDMQEDKEGLFDAVHTIKGSLRIFEGMIQTMTINKERLNQTVKEDFSNATELADYLVTKNIPFRTAHEIVGKIVLECIQQGHYLLDVPLSTYQQHHSSIDADIYDYLQPENCLKRRQSYGSTGQSSVKQQLDVAKQLLSQ</t>
+          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1498,23 +1498,23 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>28.53</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/O2/c1-2;</t>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/CH2O3/c2-1(3)4/h(H2,2,3,4)/p-1;</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MFGKKNLKWLGVVATLMMTFVQLGGALVTKTGSADGCGSSWPLCHGALIPEFFPIDTIIELSHRAVSALSLLMVLWLVITAWKHIGYIKEIKPLSIISVGFLLLQALIGAAAVIWQQNDYVLALHFGISLISFSSVFLITLIIFSIDQKYEADELYIKKPLRRLTWLMAIIIYCGVYTGALVRHADASLAYGGWPLPFHDLVPHSEQDWVQLTHRIMAFIVFTIIMITYIHAVKNYPNNRTVHYGYTAAFILVILQVITGALSIMTNVNLIIALFHALFITYLFGMTTYFIMLMLRSVRSDKQ</t>
+          <t>MKQIKKLLVANRGEIAIRIFRAAAELDISTVAIYSNEDKSSLHRYKADESYLVGSDLGPAESYLNIERIIDVAKQANVDAIHPGYGFLSENEQFARRCAEEGIKFIGPHLEHLDMFGDKVKARTTAIKADLPVIPGTDGPIKSYELAKEFAEEAGFPLMIKATSGGGGKGMRIVREESELEDAFHRAKSEAEKSFGNSEVYIERYIDNPKHIEVQVIGDEHGNIVHLFERDCSVQRRHQKVVEVAPSVGLSSDLRQRICDAAIQLMENIKYVNAGTVEFLVSGDEFFFIEVNPRVQVEHTITEMVTGIDIVKTQILVAAGADLFGEEINMPQQKDITTLGYAIQCRITTEDPLNDFMPDTGTIIAYRSSGGFGVRLDAGDGFQGAEISPYYDSLLVKLSTHAISFKQAEEKMVRSLREMRIRGVKTNIPFLINVMKNKKFTSGDYTTKFIEETPELFDIQPSLDRGTKTLEYIGNVTINGFPNVEKRPKPDYELASIPTVSSSKIASFSGTKQLLDEVGPKGVAEWVKKQDDVLLTDTTFRDAHQSLLATRVRTKDMINIASKTADVFKDGFSLEMWGGATFDVAYNFLKENPWERLERLRTAIPNVLFQMLLRASNAVGYKNYPDNVIHKFVQESAKAGIDVFRIFDSLNWVDQMKVANEAVQEAGKISEGTICYTGDILNPERSNIYTLEYYVKLAKELEREGFHILAIKDMAGLLKPKAAYELIGELKAAVDLPIHLHTHDTSGNGLLTYKQAIDAGVDIIDTAVASMSGLTSQPSANSLYYALNGFPRHLRTDIEGMESLSHYWSTVRTYYSDFESDIKSPNTEIYQHEMPGGQYSNLSQQAKSLGLGERFDEVKDMYRRVNFLFGDIVKVTPSSKVVGDMALYMVQNDLDEQSVITDGYKLDFPESVVSFFKGEIGQPVNGFNKDLQAVILKGQEALTARPGEYLEPVDFEKVRELLEEEQQGPVTEQDIISYVLYPKVYEQYIQTRNQYGNLSLLDTPTFFFGMRNGETVEIEIDKGKRLIIKLETISEPDENGNRTIYYAMNGQARRIYIKDENVHTNANVKPKADKSNPSHIGAQMPGSVTEVKVSVGETVKANQPLLITEAMKMETTIQSPFDGMIKQVTVNNGDTIATGDLLIEIEKASD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,23 +1526,23 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.34</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/O2/c1-2;</t>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/CH2O3/c2-1(3)4/h(H2,2,3,4)/p-1;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MFGKKNLKWLGVVATLMMTFVQLGGALVTKTGSADGCGSSWPLCHGALIPEFFPIDTIIELSHRAVSALSLLMVLWLVITAWKHIGYIKEIKPLSIISVGFLLLQALIGAAAVIWQQNDYVLALHFGISLISFSSVFLITLIIFSIDQKYEADELYIKKPLRRLTWLMAIIIYCGVYTGALVRHADASLAYGGWPLPFHDLVPHSEQDWVQLTHRIMAFIVFTIIMITYIHAVKNYPNNRTVHYGYTAAFILVILQVITGALSIMTNVNLIIALFHALFITYLFGMTTYFIMLMLRSVRSDKQ</t>
+          <t>MKQIKKLLVANRGEIAIRIFRAAAELDISTVAIYSNEDKSSLHRYKADESYLVGSDLGPAESYLNIERIIDVAKQANVDAIHPGYGFLSENEQFARRCAEEGIKFIGPHLEHLDMFGDKVKARTTAIKADLPVIPGTDGPIKSYELAKEFAEEAGFPLMIKATSGGGGKGMRIVREESELEDAFHRAKSEAEKSFGNSEVYIERYIDNPKHIEVQVIGDEHGNIVHLFERDCSVQRRHQKVVEVAPSVGLSSDLRQRICDAAIQLMENIKYVNAGTVEFLVSGDEFFFIEVNPRVQVEHTITEMVTGIDIVKTQILVAAGADLFGEEINMPQQKDITTLGYAIQCRITTEDPLNDFMPDTGTIIAYRSSGGFGVRLDAGDGFQGAEISPYYDSLLVKLSTHAISFKQAEEKMVRSLREMRIRGVKTNIPFLINVMKNKKFTSGDYTTKFIEETPELFDIQPSLDRGTKTLEYIGNVTINGFPNVEKRPKPDYELASIPTVSSSKIASFSGTKQLLDEVGPKGVAEWVKKQDDVLLTDTTFRDAHQSLLATRVRTKDMINIASKTADVFKDGFSLEMWGGATFDVAYNFLKENPWERLERLRTAIPNVLFQMLLRASNAVGYKNYPDNVIHKFVQESAKAGIDVFRIFDSLNWVDQMKVANEAVQEAGKISEGTICYTGDILNPERSNIYTLEYYVKLAKELEREGFHILAIKDMAGLLKPKAAYELIGELKAAVDLPIHLHTHDTSGNGLLTYKQAIDAGVDIIDTAVASMSGLTSQPSANSLYYALNGFPRHLRTDIEGMESLSHYWSTVRTYYSDFESDIKSPNTEIYQHEMPGGQYSNLSQQAKSLGLGERFDEVKDMYRRVNFLFGDIVKVTPSSKVVGDMALYMVQNDLDEQSVITDGYKLDFPESVVSFFKGEIGQPVNGFNKDLQAVILKGQEALTARPGEYLEPVDFEKVRELLEEEQQGPVTEQDIISYVLYPKVYEQYIQTRNQYGNLSLLDTPTFFFGMRNGETVEIEIDKGKRLIIKLETISEPDENGNRTIYYAMNGQARRIYIKDENVHTNANVKPKADKSNPSHIGAQMPGSVTEVKVSVGETVKANQPLLITEAMKMETTIQSPFDGMIKQVTVNNGDTIATGDLLIEIEKASD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1554,23 +1554,23 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.34</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C19H22N3O12P/c1-8(18(28)29)34-35(31,32)33-7-14(25)15(26)13(24)6-22-12-5-10(23)3-2-9(12)4-11-16(22)20-19(30)21-17(11)27/h2-5,8,13-15,24-26H,6-7H2,1H3,(H4,20,21,23,27,28,29,30,31,32)/p-3/t8-,13-,14+,15-/m0/s1;InChI=1S/H3N/h1H3/i1-1;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+          <t>MVKLAIDMMGGDNAPDIVLEAVQKAVEDFKDLEIILFGDEKKYNLNHERIEFRHCSEKIEMEDEPVRAIKRKKDSSMVKMAEAVKSGEADGCVSAGNTGALMSAGLFIVGRIKGVARPALVVTLPTIDGKGFVFLDVGANADAKPEHLLQYAQLGDIYAQKIRGIDNPKISLLNIGTEPAKGNSLTKKSYELLNQDHSLNFVGNIEAKTLMDGDTDVVVTDGYTGNMVLKNLEGTAKSIGKMLKDTIMSSTKNKLAGAILKKDLAEFAKKMDYSEYGGSVLLGLEGTVVKAHGSSNAKAFYSAIRQAKIAGEQNIVQTMKETVGESNE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1582,23 +1582,23 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/C19H22N3O12P/c1-8(18(28)29)34-35(31,32)33-7-14(25)15(26)13(24)6-22-12-5-10(23)3-2-9(12)4-11-16(22)20-19(30)21-17(11)27/h2-5,8,13-15,24-26H,6-7H2,1H3,(H4,20,21,23,27,28,29,30,31,32)/p-3/t8-,13-,14+,15-/m0/s1;InChI=1S/H3N/h1H3/i1-1;</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+          <t>MVKLAIDMMGGDNAPDIVLEAVQKAVEDFKDLEIILFGDEKKYNLNHERIEFRHCSEKIEMEDEPVRAIKRKKDSSMVKMAEAVKSGEADGCVSAGNTGALMSAGLFIVGRIKGVARPALVVTLPTIDGKGFVFLDVGANADAKPEHLLQYAQLGDIYAQKIRGIDNPKISLLNIGTEPAKGNSLTKKSYELLNQDHSLNFVGNIEAKTLMDGDTDVVVTDGYTGNMVLKNLEGTAKSIGKMLKDTIMSSTKNKLAGAILKKDLAEFAKKMDYSEYGGSVLLGLEGTVVKAHGSSNAKAFYSAIRQAKIAGEQNIVQTMKETVGESNE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1610,23 +1610,23 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+          <t>InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MYLIEPIRNGEYITDGAIALAMQVYVNQHIFLDEDILFPYYCDPKVEIGRFQNTAIEVNQDYIDKHSIQVVRRDTGGGAVYVDKGAVNMCCILEQDTSIYGDFQRFYQPAIKALHTLGATDVIQSGRNDLTLNGKKVSGAAMTLLNNRIYGGYSLLLDVNYEAMDEVLKPNRKKIASKGIKSVRARVGHLREALDEKYRDITIEEFKDLMVTQILGIDDIKEAKRYELSDADWEAIQELARKKYKNWDWNYGKSPKYEYNRSERLSSGTVDITISVEQNRIADCRIFGDFFGQGDIKDVEQALQGTKMTREDLTHQLKQLDIVYYFGNVTVESLVEMILS</t>
+          <t>MMQKLIAQIEKGKPFFEKLSRNIYLRAIRDGFISAMPVILFSSIFLLIAYVPNIFGFKWDKGMEAILMKPYNYTMGLVAFLVAGTTAKSLTDSFNRKLESTNQINFISTMLAAMCGFLFLASDPAKDGGFLSAFMGTKGLLTAFLSAFVTVIVYNFCVKRNITIKMPKEVPPNISQVFKDLIPFSAVIIILYALDLVIRNSFKSNVAEGILKLFEPLFTAADGWIGVTIIFGAFALFWFVGIHGPSIVEPAIAAITYANIEANFKLLQAGEHADKIITSGTQMFIVTFGGTGATLVVPFMFMWMTKSKRNKAIGRASVVPTFFGVNEPILFGAPLVLNPVFFIPFVLAPIVNVWIFKLFVEVLGMNSFSVNLPWTTPGPLGIIMGTGFGLWSFVLAITLIVVDIIIYYPFLKVYDSEILDEEEGRKESNSDLKEKVAANFDTKKADSILAASGVSDDAAKASNITEQTNVLVLCAGGGTSGLLANALNKAAEEYHVPVKAAAGGYGAHMDIMKEYQLIILAPQVASNYEDIKQDTDRLGIKLAKTQGAEYIKLTRDGQAALDFVQQQFEN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1638,23 +1638,23 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.36</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+          <t>InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MYLIEPIRNGEYITDGAIALAMQVYVNQHIFLDEDILFPYYCDPKVEIGRFQNTAIEVNQDYIDKHSIQVVRRDTGGGAVYVDKGAVNMCCILEQDTSIYGDFQRFYQPAIKALHTLGATDVIQSGRNDLTLNGKKVSGAAMTLLNNRIYGGYSLLLDVNYEAMDEVLKPNRKKIASKGIKSVRARVGHLREALDEKYRDITIEEFKDLMVTQILGIDDIKEAKRYELSDADWEAIQELARKKYKNWDWNYGKSPKYEYNRSERLSSGTVDITISVEQNRIADCRIFGDFFGQGDIKDVEQALQGTKMTREDLTHQLKQLDIVYYFGNVTVESLVEMILS</t>
+          <t>MMQKLIAQIEKGKPFFEKLSRNIYLRAIRDGFISAMPVILFSSIFLLIAYVPNIFGFKWDKGMEAILMKPYNYTMGLVAFLVAGTTAKSLTDSFNRKLESTNQINFISTMLAAMCGFLFLASDPAKDGGFLSAFMGTKGLLTAFLSAFVTVIVYNFCVKRNITIKMPKEVPPNISQVFKDLIPFSAVIIILYALDLVIRNSFKSNVAEGILKLFEPLFTAADGWIGVTIIFGAFALFWFVGIHGPSIVEPAIAAITYANIEANFKLLQAGEHADKIITSGTQMFIVTFGGTGATLVVPFMFMWMTKSKRNKAIGRASVVPTFFGVNEPILFGAPLVLNPVFFIPFVLAPIVNVWIFKLFVEVLGMNSFSVNLPWTTPGPLGIIMGTGFGLWSFVLAITLIVVDIIIYYPFLKVYDSEILDEEEGRKESNSDLKEKVAANFDTKKADSILAASGVSDDAAKASNITEQTNVLVLCAGGGTSGLLANALNKAAEEYHVPVKAAAGGYGAHMDIMKEYQLIILAPQVASNYEDIKQDTDRLGIKLAKTQGAEYIKLTRDGQAALDFVQQQFEN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1666,23 +1666,23 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.36</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O13P3/c15-5-1-7(14-4-13-8-9(14)11-3-12-10(8)16)25-6(5)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,15H,1-2H2,(H,20,21)(H,22,23)(H,11,12,16)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+          <t>InChI=1S/C10H13N4O7P/c15-5-1-7(21-6(5)2-20-22(17,18)19)14-4-13-8-9(14)11-3-12-10(8)16/h3-7,15H,1-2H2,(H,11,12,16)(H2,17,18,19)/p-2/t5-,6+,7+/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MKFISNNNITDPTLNLAMEEYVLKNLPAEESYFLFYINRPSIIVGKNQNTIEEVNQTYIDAHNIDVVRRISGGGAVYHDTGNLNFSFITDDDGNSFHNFQKFTEPIVQALQSLGVNAELTGRNDIQVGQAKISGNAMVKVKNRMFSHGTLMLNSDLDEVQNALKVNPAKIKSKGIKSVRKRVANIQEFLNAPLEIEEFKKIILKTIFGETEVEEYKLTDEDWENIEKLSNDKYRTWEWNYGRNPKYNFEREEKFEKGFVQIKFDVKRGKIEHAKIFGDFFGVGDVTDLENALVGCLHDFEHIEEALSEYDLYHYFGDIDRHELIRLMS</t>
+          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1694,23 +1694,23 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.51</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+          <t>InChI=1S/C10H13N4O7P/c15-5-1-7(21-6(5)2-20-22(17,18)19)14-4-13-8-9(14)11-3-12-10(8)16/h3-7,15H,1-2H2,(H,11,12,16)(H2,17,18,19)/p-2/t5-,6+,7+/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+          <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O13P3/c15-5-1-7(14-4-13-8-9(14)11-3-12-10(8)16)25-6(5)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,15H,1-2H2,(H,20,21)(H,22,23)(H,11,12,16)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MKFISNNNITDPTLNLAMEEYVLKNLPAEESYFLFYINRPSIIVGKNQNTIEEVNQTYIDAHNIDVVRRISGGGAVYHDTGNLNFSFITDDDGNSFHNFQKFTEPIVQALQSLGVNAELTGRNDIQVGQAKISGNAMVKVKNRMFSHGTLMLNSDLDEVQNALKVNPAKIKSKGIKSVRKRVANIQEFLNAPLEIEEFKKIILKTIFGETEVEEYKLTDEDWENIEKLSNDKYRTWEWNYGRNPKYNFEREEKFEKGFVQIKFDVKRGKIEHAKIFGDFFGVGDVTDLENALVGCLHDFEHIEEALSEYDLYHYFGDIDRHELIRLMS</t>
+          <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1722,23 +1722,23 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.51</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26+,30+,31+,32-,36+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+          <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C11H20N4O7/c12-1-2-14-7(16)3-11(22,10(20)21)4-8(17)15-5-6(13)9(18)19/h6,22H,1-5,12-13H2,(H,14,16)(H,15,17)(H,18,19)(H,20,21)/t6-,11-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+          <t>InChI=1S/C16H24N4O11/c17-8(13(25)26)7-20-12(24)6-16(31,15(29)30)5-11(23)19-4-3-18-10(22)2-1-9(21)14(27)28/h8,31H,1-7,17H2,(H,18,22)(H,19,23)(H,20,24)(H,25,26)(H,27,28)(H,29,30)/p-2/t8-,16-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
+          <t>MQNHTAVNTAQTIILRDLVDALLFEDIAGIVSNSEITKENGQTILIYKRETQQIKIPVYFSALNMFRYESSQPITIEGRASKQPLTAAEFWQKIVKMNRDLSREWEVARVEEGLTTAATQLTKQLSELDLASHPFVMSEQFASLKDRPFHPLAKEKRGLREADYQVYQAELNQSFPLMVAAVKKTHMIHGDTANIDELENLTAPIKEQATDMLNDQGLSIDDYVLFPVHPWQYQHILPNVFAKEISEKLVVLLPLKFGDYLSSSSMRSLIDIGAPYNHVKVPFAMQSLGALRLTPTRYMKNGEQAEQLLRQLIEKDEALAKYVMVCDETAWWSYMGQDNDIFKDQLGHLTVQLRKYPEVLAKNDTQQLVSMAALAANDRTLYQMICGKDNISKNDVMTLFEDIAQVFLKVTLSFMQYGALPELHGQNILLSFEDGRVQKCVLRDHDTVRIYKPWLTAHQLSLPKYVVREDTPNTLINEDLETFFAYFQTLAVSVNLYAIIDAIQDLFGVSEHELMSLLKQILKNEVATISWVTTDQLAVRHILFDKQTWPFKQILLPLLYQRDSGGGSMPSGLTTVPNPMVTYD</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,34 +1750,762 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>21.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>InChI=1S/C16H24N4O11/c17-8(13(25)26)7-20-12(24)6-16(31,15(29)30)5-11(23)19-4-3-18-10(22)2-1-9(21)14(27)28/h8,31H,1-7,17H2,(H,18,22)(H,19,23)(H,20,24)(H,25,26)(H,27,28)(H,29,30)/p-2/t8-,16-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C11H20N4O7/c12-1-2-14-7(16)3-11(22,10(20)21)4-8(17)15-5-6(13)9(18)19/h6,22H,1-5,12-13H2,(H,14,16)(H,15,17)(H,18,19)(H,20,21)/t6-,11-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MQNHTAVNTAQTIILRDLVDALLFEDIAGIVSNSEITKENGQTILIYKRETQQIKIPVYFSALNMFRYESSQPITIEGRASKQPLTAAEFWQKIVKMNRDLSREWEVARVEEGLTTAATQLTKQLSELDLASHPFVMSEQFASLKDRPFHPLAKEKRGLREADYQVYQAELNQSFPLMVAAVKKTHMIHGDTANIDELENLTAPIKEQATDMLNDQGLSIDDYVLFPVHPWQYQHILPNVFAKEISEKLVVLLPLKFGDYLSSSSMRSLIDIGAPYNHVKVPFAMQSLGALRLTPTRYMKNGEQAEQLLRQLIEKDEALAKYVMVCDETAWWSYMGQDNDIFKDQLGHLTVQLRKYPEVLAKNDTQQLVSMAALAANDRTLYQMICGKDNISKNDVMTLFEDIAQVFLKVTLSFMQYGALPELHGQNILLSFEDGRVQKCVLRDHDTVRIYKPWLTAHQLSLPKYVVREDTPNTLINEDLETFFAYFQTLAVSVNLYAIIDAIQDLFGVSEHELMSLLKQILKNEVATISWVTTDQLAVRHILFDKQTWPFKQILLPLLYQRDSGGGSMPSGLTTVPNPMVTYD</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MKPQLSWKVGGQQGEGIESTGEIFATAMNRKGYYLYGYRHFSSRIKGGHTNNKIRVSTTPVHAISDDLDILIAFDQETIDVNHHEMREDSIILADAKAKPVKPEGCHAQLIELPFTATAKELGTALMKNMVAIGATSALMNLNTNTFEELITNMFSKKGDKVVEVNIQALNEGYQLMQSRLPEIDGDFELESTDALPHLYMIGNDAIGLGAIAAGSQFMAAYPITPASEVMEYMIANISKVNGAVIQTEDEIAAVTMAIGANYGGVRAFTASAGPGLSLMMEAIGLSGMTETPLVIINTQRGGPSTGLPTKQEQSDLMQMIYGTHGDIPKIVVAPTDAEDAFYLTMEAFNLAEQYQCPVIVLSDLQLSLGKQTVEKLDYNRIEIKRGEIIQSDIEREEDDKGYFKRYALTSNGVSPRPIPGVKGGIHHITGVEHNEEGKPSESASNRQQQMEKRMRKIEQLLIESPVEANLQHEDADILYIGFISTKGAIQEGSNRLNQQGIKVNTIQIRQLHPFPTSVIQDAVNKAKKVVVVEHNYQGQLASIIKMNVNIHDKIENYTKYDGTPFLPHEIEEKGKIIATEIKEMV</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MKPQLSWKVGGQQGEGIESTGEIFATAMNRKGYYLYGYRHFSSRIKGGHTNNKIRVSTTPVHAISDDLDILIAFDQETIDVNHHEMREDSIILADAKAKPVKPEGCHAQLIELPFTATAKELGTALMKNMVAIGATSALMNLNTNTFEELITNMFSKKGDKVVEVNIQALNEGYQLMQSRLPEIDGDFELESTDALPHLYMIGNDAIGLGAIAAGSQFMAAYPITPASEVMEYMIANISKVNGAVIQTEDEIAAVTMAIGANYGGVRAFTASAGPGLSLMMEAIGLSGMTETPLVIINTQRGGPSTGLPTKQEQSDLMQMIYGTHGDIPKIVVAPTDAEDAFYLTMEAFNLAEQYQCPVIVLSDLQLSLGKQTVEKLDYNRIEIKRGEIIQSDIEREEDDKGYFKRYALTSNGVSPRPIPGVKGGIHHITGVEHNEEGKPSESASNRQQQMEKRMRKIEQLLIESPVEANLQHEDADILYIGFISTKGAIQEGSNRLNQQGIKVNTIQIRQLHPFPTSVIQDAVNKAKKVVVVEHNYQGQLASIIKMNVNIHDKIENYTKYDGTPFLPHEIEEKGKIIATEIKEMV</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MATFKDFRNNVKPNWCPGCGDFSVQAAIQKAAANIGLEPEEVAIITGIGCSGRLSGYINSYGVHSIHGRALPLAQGVKMANKDLTVIASGGDGDGYAIGMGHTIHALRRNMNMTYIVMDNQIYGLTKGQTSPSSAVGFVTKTTPKGNIEKNVAPLELALSSGATFVAQGFSSDIKGLTKLIEDAINHDGFSFVNVFSPCVTYNKINTYDWFKEHLTSVDDIENYDSTDKQLATKTVIEHESLVTGIVYQDKETPSYESQIKELDDTPLAKRDIKITEDTFNALTEQFI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MATFKDFRNNVKPNWCPGCGDFSVQAAIQKAAANIGLEPEEVAIITGIGCSGRLSGYINSYGVHSIHGRALPLAQGVKMANKDLTVIASGGDGDGYAIGMGHTIHALRRNMNMTYIVMDNQIYGLTKGQTSPSSAVGFVTKTTPKGNIEKNVAPLELALSSGATFVAQGFSSDIKGLTKLIEDAINHDGFSFVNVFSPCVTYNKINTYDWFKEHLTSVDDIENYDSTDKQLATKTVIEHESLVTGIVYQDKETPSYESQIKELDDTPLAKRDIKITEDTFNALTEQFI</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>InChI=1S/C30H39N9O12/c1-39-16(13-33-24-23(39)26(45)38-30(31)37-24)12-32-15-4-2-14(3-5-15)25(44)36-19(29(50)51)7-10-21(41)34-17(27(46)47)6-9-20(40)35-18(28(48)49)8-11-22(42)43/h2-5,16-19,32H,6-13H2,1H3,(H,34,41)(H,35,40)(H,36,44)(H,42,43)(H,46,47)(H,48,49)(H,50,51)(H4,31,33,37,38,45)/p-4/t16-,17-,18-,19-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C29H37N9O12/c30-29-37-23-22(25(44)38-29)33-15(12-32-23)11-31-14-3-1-13(2-4-14)24(43)36-18(28(49)50)6-9-20(40)34-16(26(45)46)5-8-19(39)35-17(27(47)48)7-10-21(41)42/h1-4,15-18,31,33H,5-12H2,(H,34,40)(H,35,39)(H,36,43)(H,41,42)(H,45,46)(H,47,48)(H,49,50)(H4,30,32,37,38,44)/p-4/t15-,16-,17-,18-/m0/s1;</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MTTIKTSNLGFPRLGRKREWKKAIESYWAKKISKEELDQTLTDLHKENLLLQKYYHLDSIPVGDFSLYDHILDTSLLFNIIPERFQGRTIDDDLLFDIARGNKDHVASALIKWFNTNYHYIVPEWDNVEPKVSRNVLLDRFKYAQSLNVNAHPVIVGPITFVKLSKGGHQTFEEKVKTLLPLYKEVFESLIDAGAEYIQVDEPILVTDDSESYENITREAYDYFEKAGVAKKLVIQTYFERAHLKFLSSLPVGGLGLDFVHDNGYNLKQIEAGDFDKSKTLYAGIIDGRNVWASDIEAKKALIDKLLAHTNELVIQPSSSLLHVPVSLDDETLDSSVGEGLSFATEKLDELDALRRLFNQNDSVKYDKLKARYERFQNQSFKNLDYDFESVRTSRQSPFAQRIEQQQKRLNLPDLPTTTIGSFPQSREVRKYRADWKNKRITDEAYETFLKNEIARWIKIQEDIGLDVLVHGEFERNDMVEFFGEKLQGFLVTKFGWVQSYGSRAVKPPIIYGDVKWTAPLTVDETVYAQSLTDKPVKGMLTGPVTILNWSFERVDLPRKVVQDQIALAINEEVLALEAAGIKVIQVDEPALREGLPLRSEYHEQYLKDAVLSFKLATSSVRDETQIHTHMCYSQFGQIIHAIHDLDADVISIETSRSHGDLIKDFEDINYDLGIGLGVYDIHSPRIPTKEEITTAINRSLQQIDRSLFWVNPDCGLKTRKEEEVKDALTVLVNAVKAKRQE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C29H37N9O12/c30-29-37-23-22(25(44)38-29)33-15(12-32-23)11-31-14-3-1-13(2-4-14)24(43)36-18(28(49)50)6-9-20(40)34-16(26(45)46)5-8-19(39)35-17(27(47)48)7-10-21(41)42/h1-4,15-18,31,33H,5-12H2,(H,34,40)(H,35,39)(H,36,43)(H,41,42)(H,45,46)(H,47,48)(H,49,50)(H4,30,32,37,38,44)/p-4/t15-,16-,17-,18-/m0/s1;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>InChI=1S/C30H39N9O12/c1-39-16(13-33-24-23(39)26(45)38-30(31)37-24)12-32-15-4-2-14(3-5-15)25(44)36-19(29(50)51)7-10-21(41)34-17(27(46)47)6-9-20(40)35-18(28(48)49)8-11-22(42)43/h2-5,16-19,32H,6-13H2,1H3,(H,34,41)(H,35,40)(H,36,44)(H,42,43)(H,46,47)(H,48,49)(H,50,51)(H4,31,33,37,38,45)/p-4/t16-,17-,18-,19-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MTTIKTSNLGFPRLGRKREWKKAIESYWAKKISKEELDQTLTDLHKENLLLQKYYHLDSIPVGDFSLYDHILDTSLLFNIIPERFQGRTIDDDLLFDIARGNKDHVASALIKWFNTNYHYIVPEWDNVEPKVSRNVLLDRFKYAQSLNVNAHPVIVGPITFVKLSKGGHQTFEEKVKTLLPLYKEVFESLIDAGAEYIQVDEPILVTDDSESYENITREAYDYFEKAGVAKKLVIQTYFERAHLKFLSSLPVGGLGLDFVHDNGYNLKQIEAGDFDKSKTLYAGIIDGRNVWASDIEAKKALIDKLLAHTNELVIQPSSSLLHVPVSLDDETLDSSVGEGLSFATEKLDELDALRRLFNQNDSVKYDKLKARYERFQNQSFKNLDYDFESVRTSRQSPFAQRIEQQQKRLNLPDLPTTTIGSFPQSREVRKYRADWKNKRITDEAYETFLKNEIARWIKIQEDIGLDVLVHGEFERNDMVEFFGEKLQGFLVTKFGWVQSYGSRAVKPPIIYGDVKWTAPLTVDETVYAQSLTDKPVKGMLTGPVTILNWSFERVDLPRKVVQDQIALAINEEVLALEAAGIKVIQVDEPALREGLPLRSEYHEQYLKDAVLSFKLATSSVRDETQIHTHMCYSQFGQIIHAIHDLDADVISIETSRSHGDLIKDFEDINYDLGIGLGVYDIHSPRIPTKEEITTAINRSLQQIDRSLFWVNPDCGLKTRKEEEVKDALTVLVNAVKAKRQE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MERTFLMIKPDAVQRNLIGEVISRIERKGLKLVGGKLMQVPMELAETHYGEHQGKPFYNDLISFITSAPVFAMVVEGEDAVNVSRHIIGSTNPSEASPGSIRGDLGLTVGRNIIHGSDSLESAEREINLWFNENEITSYASPRDAWLYE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MERTFLMIKPDAVQRNLIGEVISRIERKGLKLVGGKLMQVPMELAETHYGEHQGKPFYNDLISFITSAPVFAMVVEGEDAVNVSRHIIGSTNPSEASPGSIRGDLGLTVGRNIIHGSDSLESAEREINLWFNENEITSYASPRDAWLYE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>InChI=1S/C13H19O10P/c14-5-7-3-1-2-4-8(7)22-13-12(17)11(16)10(15)9(23-13)6-21-24(18,19)20/h1-4,9-17H,5-6H2,(H2,18,19,20)/p-2/t9-,10-,11+,12-,13-/m1/s1;InChI=1S/H2O/h1H2;</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>InChI=1S/C7H8O2/c8-5-6-3-1-2-4-7(6)9/h1-4,8-9H,5H2;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MTKLPQSFMWGGALAANQFEGGYDKGGKGLSVIDVMTSGAHGKARQITESIDPNHYYPNHEGIDFYHRYKEDIALFKEMGLKCLRTSIAWTRIFPNGDEDVPNEEGLAFYDRIFDELIAQGIEPVVTLSHFEMPLHLAKHYGGFRNREVVDYFVHFARVVFERYKDKVTYWMTFNEINNQMDTSNPIFLWTNSGVALTENDNPEEVLYQVAHHELLASALAVRLGKEINPKFKIGTMISHVPIYPYSCHPKDMMEAQIANRLRFFFPDVQVRGYYPSYAKKMLARKGYDVGWQEGDDSILQQGTVDYIGFSYYMSTAVKHDVNTTVENNIVNGGLNHSVENPHIATSDWGWAIDPDGLRYTLNVLYDRYQLPLFIVENGFGAVDEVVDGHIHDDYRIEYLKAHITAAIEAVDQDGVDLIGYTPWGIIDIVSFTTGEMKKRYGLIYVDRDNDGHGTMERLKKDSFYWYQQVIASNGDKL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>81.70999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>InChI=1S/C7H8O2/c8-5-6-3-1-2-4-7(6)9/h1-4,8-9H,5H2;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>InChI=1S/C13H19O10P/c14-5-7-3-1-2-4-8(7)22-13-12(17)11(16)10(15)9(23-13)6-21-24(18,19)20/h1-4,9-17H,5-6H2,(H2,18,19,20)/p-2/t9-,10-,11+,12-,13-/m1/s1;InChI=1S/H2O/h1H2;</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MTKLPQSFMWGGALAANQFEGGYDKGGKGLSVIDVMTSGAHGKARQITESIDPNHYYPNHEGIDFYHRYKEDIALFKEMGLKCLRTSIAWTRIFPNGDEDVPNEEGLAFYDRIFDELIAQGIEPVVTLSHFEMPLHLAKHYGGFRNREVVDYFVHFARVVFERYKDKVTYWMTFNEINNQMDTSNPIFLWTNSGVALTENDNPEEVLYQVAHHELLASALAVRLGKEINPKFKIGTMISHVPIYPYSCHPKDMMEAQIANRLRFFFPDVQVRGYYPSYAKKMLARKGYDVGWQEGDDSILQQGTVDYIGFSYYMSTAVKHDVNTTVENNIVNGGLNHSVENPHIATSDWGWAIDPDGLRYTLNVLYDRYQLPLFIVENGFGAVDEVVDGHIHDDYRIEYLKAHITAAIEAVDQDGVDLIGYTPWGIIDIVSFTTGEMKKRYGLIYVDRDNDGHGTMERLKKDSFYWYQQVIASNGDKL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>81.70999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-26,28,32-34,38,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t28-,32-,33-,34+,38-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-28,32-34,38,47,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t27-,28-,32-,33-,34+,38-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-28,32-34,38,47,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t27-,28-,32-,33-,34+,38-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-26,28,32-34,38,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t28-,32-,33-,34+,38-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H10N3O4P/c1-4-8-2-5(6(7)9-4)3-13-14(10,11)12/h2H,3H2,1H3,(H2,7,8,9)(H2,10,11,12)/p-2;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MIKPKIALTIAGTDPTGGAGVMADLKSFHSCGVYGMGVVTSIVAQNTLGVQNIHNLNHQWVDEQLDSVFNDTLPHAIKTGMIATADTMETIRHYLMQHESIPYVIDPVMLAKSGDSLMDNDTKQNLQHTLLPLADVVTPNLPEAEEITGLTIDSEEKIMQAGRIFINEIGSKGVIVKGGHSNDTDIAKDYLFTKEGVQTFENERFKTKHTHGTGCTFSAVITAELAKGRPLFDAVQKAKKFISMSIQYTPEIGRGRGPVNHFAYLKKEGLDDELSK</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H10N3O4P/c1-4-8-2-5(6(7)9-4)3-13-14(10,11)12/h2H,3H2,1H3,(H2,7,8,9)(H2,10,11,12)/p-2;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MIKPKIALTIAGTDPTGGAGVMADLKSFHSCGVYGMGVVTSIVAQNTLGVQNIHNLNHQWVDEQLDSVFNDTLPHAIKTGMIATADTMETIRHYLMQHESIPYVIDPVMLAKSGDSLMDNDTKQNLQHTLLPLADVVTPNLPEAEEITGLTIDSEEKIMQAGRIFINEIGSKGVIVKGGHSNDTDIAKDYLFTKEGVQTFENERFKTKHTHGTGCTFSAVITAELAKGRPLFDAVQKAKKFISMSIQYTPEIGRGRGPVNHFAYLKKEGLDDELSK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H18N4O6/c11-5(8(17)18)2-1-3-13-10(12)14-6(9(19)20)4-7(15)16/h5-6H,1-4,11H2,(H,15,16)(H,17,18)(H,19,20)(H3,12,13,14)/p-1/t5-,6?/m0/s1;</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>InChI=1S/C6H14N4O2/c7-4(5(11)12)2-1-3-10-6(8)9/h4H,1-3,7H2,(H,11,12)(H4,8,9,10)/p+1/t4-/m0/s1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MSNKAWGGRFEVQLEEWVDDFNASITFDQTLIDQDIEGSIAHATMLADQGIISQQDSEQIIQGLKSIQHDYHQDQIQFSASLEDIHLNIEHELIKRIGDAGGKLHTGRSRNDQVATDMHLYTKKQVQDIIALIKSLQSVIVDIASNNVDTIMPGYTHLQRAQPISFAHHIMTYFWMLQRDQQRFEDSLKRIDINPLGAAALSGTTYPIDRHETTALLNFGSLYENSLDAVSDRDYIIETLHNISLTMVHLSRFAEEIIFWSTDEAKFITLSDAFSTGSSIMPQKKNPDMAELIRGKVGRTTGHLMSMLMTLKGLPLAYNKDMQEDKEGLFDAVHTIKGSLRIFEGMIQTMTINKERLNQTVKEDFSNATELADYLVTKNIPFRTAHEIVGKIVLECIQQGHYLLDVPLSTYQQHHSSIDADIYDYLQPENCLKRRQSYGSTGQSSVKQQLDVAKQLLSQ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>InChI=1S/C6H14N4O2/c7-4(5(11)12)2-1-3-10-6(8)9/h4H,1-3,7H2,(H,11,12)(H4,8,9,10)/p+1/t4-/m0/s1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H18N4O6/c11-5(8(17)18)2-1-3-13-10(12)14-6(9(19)20)4-7(15)16/h5-6H,1-4,11H2,(H,15,16)(H,17,18)(H,19,20)(H3,12,13,14)/p-1/t5-,6?/m0/s1;</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MSNKAWGGRFEVQLEEWVDDFNASITFDQTLIDQDIEGSIAHATMLADQGIISQQDSEQIIQGLKSIQHDYHQDQIQFSASLEDIHLNIEHELIKRIGDAGGKLHTGRSRNDQVATDMHLYTKKQVQDIIALIKSLQSVIVDIASNNVDTIMPGYTHLQRAQPISFAHHIMTYFWMLQRDQQRFEDSLKRIDINPLGAAALSGTTYPIDRHETTALLNFGSLYENSLDAVSDRDYIIETLHNISLTMVHLSRFAEEIIFWSTDEAKFITLSDAFSTGSSIMPQKKNPDMAELIRGKVGRTTGHLMSMLMTLKGLPLAYNKDMQEDKEGLFDAVHTIKGSLRIFEGMIQTMTINKERLNQTVKEDFSNATELADYLVTKNIPFRTAHEIVGKIVLECIQQGHYLLDVPLSTYQQHHSSIDADIYDYLQPENCLKRRQSYGSTGQSSVKQQLDVAKQLLSQ</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/O2/c1-2;</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MFGKKNLKWLGVVATLMMTFVQLGGALVTKTGSADGCGSSWPLCHGALIPEFFPIDTIIELSHRAVSALSLLMVLWLVITAWKHIGYIKEIKPLSIISVGFLLLQALIGAAAVIWQQNDYVLALHFGISLISFSSVFLITLIIFSIDQKYEADELYIKKPLRRLTWLMAIIIYCGVYTGALVRHADASLAYGGWPLPFHDLVPHSEQDWVQLTHRIMAFIVFTIIMITYIHAVKNYPNNRTVHYGYTAAFILVILQVITGALSIMTNVNLIIALFHALFITYLFGMTTYFIMLMLRSVRSDKQ</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/O2/c1-2;</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MFGKKNLKWLGVVATLMMTFVQLGGALVTKTGSADGCGSSWPLCHGALIPEFFPIDTIIELSHRAVSALSLLMVLWLVITAWKHIGYIKEIKPLSIISVGFLLLQALIGAAAVIWQQNDYVLALHFGISLISFSSVFLITLIIFSIDQKYEADELYIKKPLRRLTWLMAIIIYCGVYTGALVRHADASLAYGGWPLPFHDLVPHSEQDWVQLTHRIMAFIVFTIIMITYIHAVKNYPNNRTVHYGYTAAFILVILQVITGALSIMTNVNLIIALFHALFITYLFGMTTYFIMLMLRSVRSDKQ</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MSQNKRVVITGMGALSPIGNDVKTTWENALKGVNGIDKITRIDTEPYSVHLAGELKNFNIEDHIDKKEARRMDRFTQYAIVAAREAVKDAQLDINENTADRIGVWIGSGIGGMETFEIAHKQLMDKGPRRVSPFFVPMLIPDMATGQVSIDLGAKGPNGATVTACATGTNSIGEAFKIVQRGDADAMITGGTEAPITHMAIAGFSASRALSTNDDIETACRPFQEGRDGFVMGEGAGILVIESLDSAQARGANIYAEIVGYGTTGDAYHITAPAPEGEGGSRAMQAAMDDAGIEPKDVQYLNAHGTSTPVGDLNEVKAIKNTFGEAAKHLKVSSTKSMTGHLLGATGGIEAIFSALSIKDSKVAPTIHAVTPDPECDLDIVPNEAQNLDITYAMSNSLGFGGHNAVLVFKKFEA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MYLIEPIRNGEYITDGAIALAMQVYVNQHIFLDEDILFPYYCDPKVEIGRFQNTAIEVNQDYIDKHSIQVVRRDTGGGAVYVDKGAVNMCCILEQDTSIYGDFQRFYQPAIKALHTLGATDVIQSGRNDLTLNGKKVSGAAMTLLNNRIYGGYSLLLDVNYEAMDEVLKPNRKKIASKGIKSVRARVGHLREALDEKYRDITIEEFKDLMVTQILGIDDIKEAKRYELSDADWEAIQELARKKYKNWDWNYGKSPKYEYNRSERLSSGTVDITISVEQNRIADCRIFGDFFGQGDIKDVEQALQGTKMTREDLTHQLKQLDIVYYFGNVTVESLVEMILS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MYLIEPIRNGEYITDGAIALAMQVYVNQHIFLDEDILFPYYCDPKVEIGRFQNTAIEVNQDYIDKHSIQVVRRDTGGGAVYVDKGAVNMCCILEQDTSIYGDFQRFYQPAIKALHTLGATDVIQSGRNDLTLNGKKVSGAAMTLLNNRIYGGYSLLLDVNYEAMDEVLKPNRKKIASKGIKSVRARVGHLREALDEKYRDITIEEFKDLMVTQILGIDDIKEAKRYELSDADWEAIQELARKKYKNWDWNYGKSPKYEYNRSERLSSGTVDITISVEQNRIADCRIFGDFFGQGDIKDVEQALQGTKMTREDLTHQLKQLDIVYYFGNVTVESLVEMILS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MKFISNNNITDPTLNLAMEEYVLKNLPAEESYFLFYINRPSIIVGKNQNTIEEVNQTYIDAHNIDVVRRISGGGAVYHDTGNLNFSFITDDDGNSFHNFQKFTEPIVQALQSLGVNAELTGRNDIQVGQAKISGNAMVKVKNRMFSHGTLMLNSDLDEVQNALKVNPAKIKSKGIKSVRKRVANIQEFLNAPLEIEEFKKIILKTIFGETEVEEYKLTDEDWENIEKLSNDKYRTWEWNYGRNPKYNFEREEKFEKGFVQIKFDVKRGKIEHAKIFGDFFGVGDVTDLENALVGCLHDFEHIEEALSEYDLYHYFGDIDRHELIRLMS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MKFISNNNITDPTLNLAMEEYVLKNLPAEESYFLFYINRPSIIVGKNQNTIEEVNQTYIDAHNIDVVRRISGGGAVYHDTGNLNFSFITDDDGNSFHNFQKFTEPIVQALQSLGVNAELTGRNDIQVGQAKISGNAMVKVKNRMFSHGTLMLNSDLDEVQNALKVNPAKIKSKGIKSVRKRVANIQEFLNAPLEIEEFKKIILKTIFGETEVEEYKLTDEDWENIEKLSNDKYRTWEWNYGRNPKYNFEREEKFEKGFVQIKFDVKRGKIEHAKIFGDFFGVGDVTDLENALVGCLHDFEHIEEALSEYDLYHYFGDIDRHELIRLMS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26+,30+,31+,32-,36+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26+,30+,31+,32-,36+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>MTINKVTVLGAGTMGAQLAALFVNAGLKVKLLDIVVDKNDPNLIAKKSYDKITDKKRPLLFDLNLASHLTYGNFDDDLVNDDADLYIEAVKEDIKIKHAVWQQVLQHAKEDALFATNTSGIPINAIAKAFNKKDQERFFGLHFFNPPRIMKLVELIPTSHTKESIILDVKNFAQNVLGKGVIVVNDVPGFVANRVGTQTMNDIMYRAEQHKLSIVDVDALTGQAIGRPKTGTYALSDLVGLDIAVSVIKGMQQVPEETPYFHDVKIVNTLYENGALGRKTKQGFYKKDKETKARLVYDVEKQDYVPVSQPQLPILNEFNKDLVHNLDVIFNAQDEAGLFLWETLRNNFYYSAINVPKATDDFRDIDRALVWGFNWKLGPFQLWDAMGYERVKTRMEDELGDLPQWISDLDGGFYKQDETIEYATPISHFVKDELWDKGDAKLSVTHDDQLLLKLQSKNNVITDEFNDALVDAIDLLENEHYTSMVIYADGNNFSVGANLFLMKKAHEDGLVDDVVAQSIDKLHYSFNRLKYSLKPVVTAVQGRALGGGCELVLYSPIVVAASETYIGLVEAGVGLLPSGGGLAEMADRILRTSHKFDDKQASMTKVLTNIAFAKVSTNAFEARRYGYLRDTDTIIFNTAQRVEVALKRAKYEAETNYIPNPRHQYIALGEDFKALIQGQLDAQRHGHFISDHDYHIALNIATILAGGDLPRNTFINQRYIQSLEKIGFIDLLKSKKSYERIAHMLKTGKPLRN</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>sequence and reaction</t>
-        </is>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>sequence and reaction</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
         <v>21.9</v>
       </c>
     </row>
